--- a/CardFormatter/Data/ReadingGame/DataFile.xlsx
+++ b/CardFormatter/Data/ReadingGame/DataFile.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24701"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Mike\CardGenerator\CardFormatter\Data\ReadingGame\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FFB51095-BD69-4B7C-9B04-E318C0DB5EFF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{554A8230-FE51-45CB-ABEE-DA32473F955F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{B0B6F563-E490-4B3B-95D1-66627E83C2B5}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{B0B6F563-E490-4B3B-95D1-66627E83C2B5}"/>
   </bookViews>
   <sheets>
     <sheet name="Monsters" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="824" uniqueCount="201">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1298" uniqueCount="281">
   <si>
     <t>Jambler.png</t>
   </si>
@@ -639,6 +639,246 @@
   </si>
   <si>
     <t>ItemI.png</t>
+  </si>
+  <si>
+    <t>2{healing}</t>
+  </si>
+  <si>
+    <t>at can ate cane</t>
+  </si>
+  <si>
+    <t>sam hat same hate</t>
+  </si>
+  <si>
+    <t>pan mad pane made</t>
+  </si>
+  <si>
+    <t>mat man mate mane</t>
+  </si>
+  <si>
+    <t>fad fade rat rate</t>
+  </si>
+  <si>
+    <t>cap hid cape hide</t>
+  </si>
+  <si>
+    <t>fat tap fate tape</t>
+  </si>
+  <si>
+    <t>dim dime fin fine</t>
+  </si>
+  <si>
+    <t>bit lop bite lope</t>
+  </si>
+  <si>
+    <t>pin rid pine ride</t>
+  </si>
+  <si>
+    <t>not note tin tine</t>
+  </si>
+  <si>
+    <t>rod cut rode cute</t>
+  </si>
+  <si>
+    <t>win rob wine robe</t>
+  </si>
+  <si>
+    <t>us use din dine</t>
+  </si>
+  <si>
+    <t>hop tub hope tube</t>
+  </si>
+  <si>
+    <t>rip mop ripe mope</t>
+  </si>
+  <si>
+    <t>cub cube lame</t>
+  </si>
+  <si>
+    <t>wade tame side safe</t>
+  </si>
+  <si>
+    <t>Jane wide bake lane</t>
+  </si>
+  <si>
+    <t>tide rake base life</t>
+  </si>
+  <si>
+    <t>cake case wife lake</t>
+  </si>
+  <si>
+    <t>vase mile wake Kate</t>
+  </si>
+  <si>
+    <t>pile make date tile</t>
+  </si>
+  <si>
+    <t>take gate file gale</t>
+  </si>
+  <si>
+    <t>late lime pale cave</t>
+  </si>
+  <si>
+    <t>time sale gave mine</t>
+  </si>
+  <si>
+    <t>tale pave line came</t>
+  </si>
+  <si>
+    <t>save vine game wave</t>
+  </si>
+  <si>
+    <t>nine name gaze wipe</t>
+  </si>
+  <si>
+    <t>kite sole fire bone</t>
+  </si>
+  <si>
+    <t>tune mire cone June</t>
+  </si>
+  <si>
+    <t>wire tone Luke tire</t>
+  </si>
+  <si>
+    <t>lone Duke hire rope</t>
+  </si>
+  <si>
+    <t>pure five home cure</t>
+  </si>
+  <si>
+    <t>hive dome mule dive</t>
+  </si>
+  <si>
+    <t>core mute live tore</t>
+  </si>
+  <si>
+    <t>sore wore he poke</t>
+  </si>
+  <si>
+    <t>more be joke dose</t>
+  </si>
+  <si>
+    <t>we yoke me pole no</t>
+  </si>
+  <si>
+    <t>hole go mole so</t>
+  </si>
+  <si>
+    <t>SilentE</t>
+  </si>
+  <si>
+    <t>5{damage}</t>
+  </si>
+  <si>
+    <t>11{health}</t>
+  </si>
+  <si>
+    <t>12{health}</t>
+  </si>
+  <si>
+    <t>13{health}</t>
+  </si>
+  <si>
+    <t>14{health}</t>
+  </si>
+  <si>
+    <t>15{health}</t>
+  </si>
+  <si>
+    <t>16{health}</t>
+  </si>
+  <si>
+    <t>17{health}</t>
+  </si>
+  <si>
+    <t>18{health}</t>
+  </si>
+  <si>
+    <t>19{health}</t>
+  </si>
+  <si>
+    <t>20{health}</t>
+  </si>
+  <si>
+    <t>Earth Kobald</t>
+  </si>
+  <si>
+    <t>Earth Scorpion</t>
+  </si>
+  <si>
+    <t>Stone Turtle</t>
+  </si>
+  <si>
+    <t>Gemslime</t>
+  </si>
+  <si>
+    <t>Dirtball</t>
+  </si>
+  <si>
+    <t>The Standing Stones</t>
+  </si>
+  <si>
+    <t>Lesser Beholder</t>
+  </si>
+  <si>
+    <t>The Earth Guardian</t>
+  </si>
+  <si>
+    <t>Fiend of the Earth</t>
+  </si>
+  <si>
+    <t>The Rock Hand</t>
+  </si>
+  <si>
+    <t>e1.png</t>
+  </si>
+  <si>
+    <t>e2.png</t>
+  </si>
+  <si>
+    <t>e3.png</t>
+  </si>
+  <si>
+    <t>e4.png</t>
+  </si>
+  <si>
+    <t>e5.png</t>
+  </si>
+  <si>
+    <t>e6.png</t>
+  </si>
+  <si>
+    <t>e7.png</t>
+  </si>
+  <si>
+    <t>e8.png</t>
+  </si>
+  <si>
+    <t>e9.png</t>
+  </si>
+  <si>
+    <t>e10.png</t>
+  </si>
+  <si>
+    <t>dungeon2Background.png</t>
+  </si>
+  <si>
+    <t>Weak against Barbarian.</t>
+  </si>
+  <si>
+    <t>Weak against Cleric.</t>
+  </si>
+  <si>
+    <t>Weak against Druid.</t>
+  </si>
+  <si>
+    <t>Weak against Rogue.</t>
+  </si>
+  <si>
+    <t>Weak against Wizard.</t>
+  </si>
+  <si>
+    <t>Weak against Gladiator.</t>
   </si>
 </sst>
 </file>
@@ -728,10 +968,10 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{290E3D7D-B49A-4B2B-B111-5FFA204F0C12}" name="Table1" displayName="Table1" ref="A1:L25" totalsRowShown="0">
-  <autoFilter ref="A1:L25" xr:uid="{290E3D7D-B49A-4B2B-B111-5FFA204F0C12}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:L25">
-    <sortCondition ref="B1:B25"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{290E3D7D-B49A-4B2B-B111-5FFA204F0C12}" name="Table1" displayName="Table1" ref="A1:L35" totalsRowShown="0">
+  <autoFilter ref="A1:L35" xr:uid="{290E3D7D-B49A-4B2B-B111-5FFA204F0C12}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:L35">
+    <sortCondition ref="B1:B35"/>
   </sortState>
   <tableColumns count="12">
     <tableColumn id="9" xr3:uid="{8576408C-E590-4D1D-B5C4-6A5CF7046163}" name="name" dataDxfId="8">
@@ -777,8 +1017,8 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{90D2C2DB-910D-41CE-A680-ADDAB3EF40DE}" name="Table14" displayName="Table14" ref="A1:O63" totalsRowShown="0">
-  <autoFilter ref="A1:O63" xr:uid="{90D2C2DB-910D-41CE-A680-ADDAB3EF40DE}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{90D2C2DB-910D-41CE-A680-ADDAB3EF40DE}" name="Table14" displayName="Table14" ref="A1:O103" totalsRowShown="0">
+  <autoFilter ref="A1:O103" xr:uid="{90D2C2DB-910D-41CE-A680-ADDAB3EF40DE}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:N27">
     <sortCondition ref="G1:G27"/>
   </sortState>
@@ -1108,10 +1348,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9069E403-81AF-48AB-A3A4-60BD9FF4944D}">
-  <dimension ref="A1:L25"/>
+  <dimension ref="A1:L35"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G2" sqref="G2:G25"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L27" sqref="L27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1120,14 +1360,14 @@
     <col min="2" max="2" width="5.85546875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="6.140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="17.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.140625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="15.140625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="12.42578125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="21.5703125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="24.42578125" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="24.42578125" customWidth="1"/>
     <col min="11" max="11" width="10.28515625" customWidth="1"/>
-    <col min="12" max="12" width="11.42578125" customWidth="1"/>
+    <col min="12" max="12" width="28.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
@@ -1203,6 +1443,9 @@
       <c r="K2" t="s">
         <v>52</v>
       </c>
+      <c r="L2" t="s">
+        <v>275</v>
+      </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" t="str">
@@ -1239,6 +1482,9 @@
       <c r="K3" t="s">
         <v>52</v>
       </c>
+      <c r="L3" t="s">
+        <v>276</v>
+      </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" t="str">
@@ -1275,6 +1521,9 @@
       <c r="K4" t="s">
         <v>52</v>
       </c>
+      <c r="L4" t="s">
+        <v>276</v>
+      </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" t="str">
@@ -1311,6 +1560,9 @@
       <c r="K5" t="s">
         <v>52</v>
       </c>
+      <c r="L5" t="s">
+        <v>277</v>
+      </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" t="str">
@@ -1347,6 +1599,9 @@
       <c r="K6" t="s">
         <v>52</v>
       </c>
+      <c r="L6" t="s">
+        <v>278</v>
+      </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" t="str">
@@ -1383,6 +1638,9 @@
       <c r="K7" t="s">
         <v>52</v>
       </c>
+      <c r="L7" t="s">
+        <v>279</v>
+      </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" t="str">
@@ -1419,6 +1677,9 @@
       <c r="K8" t="s">
         <v>52</v>
       </c>
+      <c r="L8" t="s">
+        <v>277</v>
+      </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" t="str">
@@ -1455,6 +1716,9 @@
       <c r="K9" t="s">
         <v>52</v>
       </c>
+      <c r="L9" t="s">
+        <v>280</v>
+      </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" t="str">
@@ -1491,6 +1755,9 @@
       <c r="K10" t="s">
         <v>52</v>
       </c>
+      <c r="L10" t="s">
+        <v>275</v>
+      </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" t="str">
@@ -1527,6 +1794,9 @@
       <c r="K11" t="s">
         <v>52</v>
       </c>
+      <c r="L11" t="s">
+        <v>278</v>
+      </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" t="str">
@@ -1563,6 +1833,9 @@
       <c r="K12" t="s">
         <v>52</v>
       </c>
+      <c r="L12" t="s">
+        <v>279</v>
+      </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" t="str">
@@ -1599,6 +1872,9 @@
       <c r="K13" t="s">
         <v>52</v>
       </c>
+      <c r="L13" t="s">
+        <v>280</v>
+      </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" t="str">
@@ -1635,6 +1911,9 @@
       <c r="K14" t="s">
         <v>52</v>
       </c>
+      <c r="L14" t="s">
+        <v>276</v>
+      </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" t="str">
@@ -1671,6 +1950,9 @@
       <c r="K15" t="s">
         <v>52</v>
       </c>
+      <c r="L15" t="s">
+        <v>277</v>
+      </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" t="str">
@@ -1707,8 +1989,11 @@
       <c r="K16" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L16" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17" t="str">
         <f>CONCATENATE("0.",Table1[[#This Row],[No]],".",Table1[[#This Row],[level]],".",Table1[[#This Row],[title]])</f>
         <v>0.16.3.Brain-Slime</v>
@@ -1743,8 +2028,11 @@
       <c r="K17" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L17" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18" t="str">
         <f>CONCATENATE("0.",Table1[[#This Row],[No]],".",Table1[[#This Row],[level]],".",Table1[[#This Row],[title]])</f>
         <v>0.17.3.Blue Doom</v>
@@ -1779,8 +2067,11 @@
       <c r="K18" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L18" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19" t="str">
         <f>CONCATENATE("0.",Table1[[#This Row],[No]],".",Table1[[#This Row],[level]],".",Table1[[#This Row],[title]])</f>
         <v>0.18.3.Drake</v>
@@ -1815,8 +2106,11 @@
       <c r="K19" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L19" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A20" t="str">
         <f>CONCATENATE("0.",Table1[[#This Row],[No]],".",Table1[[#This Row],[level]],".",Table1[[#This Row],[title]])</f>
         <v>0.19.4.Behemoth</v>
@@ -1851,8 +2145,11 @@
       <c r="K20" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L20" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A21" t="str">
         <f>CONCATENATE("0.",Table1[[#This Row],[No]],".",Table1[[#This Row],[level]],".",Table1[[#This Row],[title]])</f>
         <v>0.20.4.Abomination</v>
@@ -1887,8 +2184,11 @@
       <c r="K21" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L21" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A22" t="str">
         <f>CONCATENATE("0.",Table1[[#This Row],[No]],".",Table1[[#This Row],[level]],".",Table1[[#This Row],[title]])</f>
         <v>0.21.4.Chimera</v>
@@ -1923,8 +2223,11 @@
       <c r="K22" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L22" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A23" t="str">
         <f>CONCATENATE("0.",Table1[[#This Row],[No]],".",Table1[[#This Row],[level]],".",Table1[[#This Row],[title]])</f>
         <v>0.22.4.Blue Dragon</v>
@@ -1959,8 +2262,11 @@
       <c r="K23" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L23" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A24" t="str">
         <f>CONCATENATE("0.",Table1[[#This Row],[No]],".",Table1[[#This Row],[level]],".",Table1[[#This Row],[title]])</f>
         <v>0.23.4.Demon</v>
@@ -1995,8 +2301,11 @@
       <c r="K24" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L24" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A25" t="str">
         <f>CONCATENATE("0.",Table1[[#This Row],[No]],".",Table1[[#This Row],[level]],".",Table1[[#This Row],[title]])</f>
         <v>0.24.5.Fire Fiend</v>
@@ -2030,6 +2339,399 @@
       </c>
       <c r="K25" t="s">
         <v>52</v>
+      </c>
+      <c r="L25" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A26" s="4" t="str">
+        <f>CONCATENATE("0.",Table1[[#This Row],[No]],".",Table1[[#This Row],[level]],".",Table1[[#This Row],[title]])</f>
+        <v>0.25.4.Earth Kobald</v>
+      </c>
+      <c r="B26">
+        <v>25</v>
+      </c>
+      <c r="C26">
+        <v>4</v>
+      </c>
+      <c r="D26" t="s">
+        <v>254</v>
+      </c>
+      <c r="E26" t="s">
+        <v>244</v>
+      </c>
+      <c r="F26" t="s">
+        <v>151</v>
+      </c>
+      <c r="G26" t="s">
+        <v>136</v>
+      </c>
+      <c r="H26" t="s">
+        <v>264</v>
+      </c>
+      <c r="I26" t="s">
+        <v>274</v>
+      </c>
+      <c r="J26" t="s">
+        <v>143</v>
+      </c>
+      <c r="K26" t="s">
+        <v>52</v>
+      </c>
+      <c r="L26" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A27" s="4" t="str">
+        <f>CONCATENATE("0.",Table1[[#This Row],[No]],".",Table1[[#This Row],[level]],".",Table1[[#This Row],[title]])</f>
+        <v>0.26.4.Earth Scorpion</v>
+      </c>
+      <c r="B27">
+        <v>26</v>
+      </c>
+      <c r="C27">
+        <v>4</v>
+      </c>
+      <c r="D27" t="s">
+        <v>255</v>
+      </c>
+      <c r="E27" t="s">
+        <v>245</v>
+      </c>
+      <c r="F27" t="s">
+        <v>151</v>
+      </c>
+      <c r="G27" t="s">
+        <v>135</v>
+      </c>
+      <c r="H27" t="s">
+        <v>265</v>
+      </c>
+      <c r="I27" t="s">
+        <v>274</v>
+      </c>
+      <c r="J27" t="s">
+        <v>143</v>
+      </c>
+      <c r="K27" t="s">
+        <v>52</v>
+      </c>
+      <c r="L27" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A28" s="4" t="str">
+        <f>CONCATENATE("0.",Table1[[#This Row],[No]],".",Table1[[#This Row],[level]],".",Table1[[#This Row],[title]])</f>
+        <v>0.27.4.Stone Turtle</v>
+      </c>
+      <c r="B28">
+        <v>27</v>
+      </c>
+      <c r="C28">
+        <v>4</v>
+      </c>
+      <c r="D28" t="s">
+        <v>256</v>
+      </c>
+      <c r="E28" t="s">
+        <v>246</v>
+      </c>
+      <c r="F28" t="s">
+        <v>152</v>
+      </c>
+      <c r="G28" t="s">
+        <v>144</v>
+      </c>
+      <c r="H28" t="s">
+        <v>266</v>
+      </c>
+      <c r="I28" t="s">
+        <v>274</v>
+      </c>
+      <c r="J28" t="s">
+        <v>143</v>
+      </c>
+      <c r="K28" t="s">
+        <v>52</v>
+      </c>
+      <c r="L28" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A29" s="4" t="str">
+        <f>CONCATENATE("0.",Table1[[#This Row],[No]],".",Table1[[#This Row],[level]],".",Table1[[#This Row],[title]])</f>
+        <v>0.28.5.Gemslime</v>
+      </c>
+      <c r="B29">
+        <v>28</v>
+      </c>
+      <c r="C29">
+        <v>5</v>
+      </c>
+      <c r="D29" t="s">
+        <v>257</v>
+      </c>
+      <c r="E29" t="s">
+        <v>247</v>
+      </c>
+      <c r="F29" t="s">
+        <v>151</v>
+      </c>
+      <c r="G29" t="s">
+        <v>145</v>
+      </c>
+      <c r="H29" t="s">
+        <v>267</v>
+      </c>
+      <c r="I29" t="s">
+        <v>274</v>
+      </c>
+      <c r="J29" t="s">
+        <v>143</v>
+      </c>
+      <c r="K29" t="s">
+        <v>52</v>
+      </c>
+      <c r="L29" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A30" s="4" t="str">
+        <f>CONCATENATE("0.",Table1[[#This Row],[No]],".",Table1[[#This Row],[level]],".",Table1[[#This Row],[title]])</f>
+        <v>0.29.5.Dirtball</v>
+      </c>
+      <c r="B30">
+        <v>29</v>
+      </c>
+      <c r="C30">
+        <v>5</v>
+      </c>
+      <c r="D30" t="s">
+        <v>258</v>
+      </c>
+      <c r="E30" t="s">
+        <v>248</v>
+      </c>
+      <c r="F30" t="s">
+        <v>151</v>
+      </c>
+      <c r="G30" t="s">
+        <v>134</v>
+      </c>
+      <c r="H30" t="s">
+        <v>268</v>
+      </c>
+      <c r="I30" t="s">
+        <v>274</v>
+      </c>
+      <c r="J30" t="s">
+        <v>143</v>
+      </c>
+      <c r="K30" t="s">
+        <v>52</v>
+      </c>
+      <c r="L30" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A31" s="4" t="str">
+        <f>CONCATENATE("0.",Table1[[#This Row],[No]],".",Table1[[#This Row],[level]],".",Table1[[#This Row],[title]])</f>
+        <v>0.30.5.The Standing Stones</v>
+      </c>
+      <c r="B31">
+        <v>30</v>
+      </c>
+      <c r="C31">
+        <v>5</v>
+      </c>
+      <c r="D31" t="s">
+        <v>259</v>
+      </c>
+      <c r="E31" t="s">
+        <v>249</v>
+      </c>
+      <c r="F31" t="s">
+        <v>151</v>
+      </c>
+      <c r="G31" t="s">
+        <v>137</v>
+      </c>
+      <c r="H31" t="s">
+        <v>269</v>
+      </c>
+      <c r="I31" t="s">
+        <v>274</v>
+      </c>
+      <c r="J31" t="s">
+        <v>143</v>
+      </c>
+      <c r="K31" t="s">
+        <v>52</v>
+      </c>
+      <c r="L31" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A32" s="4" t="str">
+        <f>CONCATENATE("0.",Table1[[#This Row],[No]],".",Table1[[#This Row],[level]],".",Table1[[#This Row],[title]])</f>
+        <v>0.31.6.Lesser Beholder</v>
+      </c>
+      <c r="B32">
+        <v>31</v>
+      </c>
+      <c r="C32">
+        <v>6</v>
+      </c>
+      <c r="D32" t="s">
+        <v>260</v>
+      </c>
+      <c r="E32" t="s">
+        <v>250</v>
+      </c>
+      <c r="F32" t="s">
+        <v>152</v>
+      </c>
+      <c r="G32" t="s">
+        <v>136</v>
+      </c>
+      <c r="H32" t="s">
+        <v>270</v>
+      </c>
+      <c r="I32" t="s">
+        <v>274</v>
+      </c>
+      <c r="J32" t="s">
+        <v>143</v>
+      </c>
+      <c r="K32" t="s">
+        <v>52</v>
+      </c>
+      <c r="L32" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A33" s="4" t="str">
+        <f>CONCATENATE("0.",Table1[[#This Row],[No]],".",Table1[[#This Row],[level]],".",Table1[[#This Row],[title]])</f>
+        <v>0.32.6.The Rock Hand</v>
+      </c>
+      <c r="B33">
+        <v>32</v>
+      </c>
+      <c r="C33">
+        <v>6</v>
+      </c>
+      <c r="D33" t="s">
+        <v>263</v>
+      </c>
+      <c r="E33" t="s">
+        <v>251</v>
+      </c>
+      <c r="F33" t="s">
+        <v>152</v>
+      </c>
+      <c r="G33" t="s">
+        <v>135</v>
+      </c>
+      <c r="H33" t="s">
+        <v>271</v>
+      </c>
+      <c r="I33" t="s">
+        <v>274</v>
+      </c>
+      <c r="J33" t="s">
+        <v>143</v>
+      </c>
+      <c r="K33" t="s">
+        <v>52</v>
+      </c>
+      <c r="L33" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A34" s="4" t="str">
+        <f>CONCATENATE("0.",Table1[[#This Row],[No]],".",Table1[[#This Row],[level]],".",Table1[[#This Row],[title]])</f>
+        <v>0.33.6.The Earth Guardian</v>
+      </c>
+      <c r="B34">
+        <v>33</v>
+      </c>
+      <c r="C34">
+        <v>6</v>
+      </c>
+      <c r="D34" t="s">
+        <v>261</v>
+      </c>
+      <c r="E34" t="s">
+        <v>252</v>
+      </c>
+      <c r="F34" t="s">
+        <v>152</v>
+      </c>
+      <c r="G34" t="s">
+        <v>144</v>
+      </c>
+      <c r="H34" t="s">
+        <v>272</v>
+      </c>
+      <c r="I34" t="s">
+        <v>274</v>
+      </c>
+      <c r="J34" t="s">
+        <v>143</v>
+      </c>
+      <c r="K34" t="s">
+        <v>52</v>
+      </c>
+      <c r="L34" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A35" s="4" t="str">
+        <f>CONCATENATE("0.",Table1[[#This Row],[No]],".",Table1[[#This Row],[level]],".",Table1[[#This Row],[title]])</f>
+        <v>0.34.7.Fiend of the Earth</v>
+      </c>
+      <c r="B35">
+        <v>34</v>
+      </c>
+      <c r="C35">
+        <v>7</v>
+      </c>
+      <c r="D35" t="s">
+        <v>262</v>
+      </c>
+      <c r="E35" t="s">
+        <v>253</v>
+      </c>
+      <c r="F35" t="s">
+        <v>153</v>
+      </c>
+      <c r="G35" t="s">
+        <v>145</v>
+      </c>
+      <c r="H35" t="s">
+        <v>273</v>
+      </c>
+      <c r="I35" t="s">
+        <v>274</v>
+      </c>
+      <c r="J35" t="s">
+        <v>143</v>
+      </c>
+      <c r="K35" t="s">
+        <v>52</v>
+      </c>
+      <c r="L35" t="s">
+        <v>280</v>
       </c>
     </row>
   </sheetData>
@@ -2259,10 +2961,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1B97AD1E-A351-4022-989B-9AB8A0D2AA66}">
-  <dimension ref="A1:O64"/>
+  <dimension ref="A1:O103"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="H41" sqref="H41"/>
+    <sheetView topLeftCell="A57" workbookViewId="0">
+      <selection activeCell="K67" sqref="K67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2277,7 +2979,7 @@
     <col min="8" max="8" width="10.5703125" customWidth="1"/>
     <col min="9" max="9" width="13.140625" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="13.140625" customWidth="1"/>
-    <col min="11" max="11" width="11" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="24" customWidth="1"/>
     <col min="12" max="12" width="19.5703125" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="20.28515625" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="7.5703125" bestFit="1" customWidth="1"/>
@@ -3014,7 +3716,7 @@
         <v>119</v>
       </c>
       <c r="G15" t="s">
-        <v>171</v>
+        <v>133</v>
       </c>
       <c r="H15" t="s">
         <v>195</v>
@@ -3269,7 +3971,7 @@
         <v>119</v>
       </c>
       <c r="G20" t="s">
-        <v>171</v>
+        <v>133</v>
       </c>
       <c r="H20" t="s">
         <v>193</v>
@@ -3473,7 +4175,7 @@
         <v>119</v>
       </c>
       <c r="G24" t="s">
-        <v>171</v>
+        <v>133</v>
       </c>
       <c r="H24" t="s">
         <v>195</v>
@@ -3524,7 +4226,7 @@
         <v>119</v>
       </c>
       <c r="G25" t="s">
-        <v>171</v>
+        <v>133</v>
       </c>
       <c r="H25" t="s">
         <v>193</v>
@@ -3881,7 +4583,7 @@
         <v>119</v>
       </c>
       <c r="G32" t="s">
-        <v>190</v>
+        <v>201</v>
       </c>
       <c r="H32" t="s">
         <v>193</v>
@@ -4391,7 +5093,7 @@
         <v>119</v>
       </c>
       <c r="G42" t="s">
-        <v>190</v>
+        <v>201</v>
       </c>
       <c r="H42" t="s">
         <v>195</v>
@@ -4646,7 +5348,7 @@
         <v>119</v>
       </c>
       <c r="G47" t="s">
-        <v>190</v>
+        <v>201</v>
       </c>
       <c r="H47" t="s">
         <v>193</v>
@@ -5493,8 +6195,2038 @@
       </c>
     </row>
     <row r="64" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A64" s="4"/>
-      <c r="K64" s="4"/>
+      <c r="A64" s="4" t="str">
+        <f>CONCATENATE("1.",Table14[[#This Row],[no]],".",Table14[[#This Row],[world]],".",Table14[[#This Row],[dungeon]],".",Table14[[#This Row],[set]],".",Table14[[#This Row],[title]])</f>
+        <v>1.61.Light.SilentE.5.Item</v>
+      </c>
+      <c r="B64">
+        <v>61</v>
+      </c>
+      <c r="C64" t="s">
+        <v>102</v>
+      </c>
+      <c r="D64" t="s">
+        <v>242</v>
+      </c>
+      <c r="E64">
+        <v>5</v>
+      </c>
+      <c r="F64" t="s">
+        <v>119</v>
+      </c>
+      <c r="G64" t="s">
+        <v>243</v>
+      </c>
+      <c r="H64" t="s">
+        <v>194</v>
+      </c>
+      <c r="I64" t="str">
+        <f>_xlfn.CONCAT("{",Table14[[#This Row],[owner]],"}")</f>
+        <v>{gladiator}</v>
+      </c>
+      <c r="J64" s="4">
+        <v>23</v>
+      </c>
+      <c r="K64" s="4" t="str">
+        <f>_xlfn.CONCAT(Table14[[#This Row],[owner]], Table14[[#This Row],[count]], ".png")</f>
+        <v>gladiator23.png</v>
+      </c>
+      <c r="L64" t="s">
+        <v>108</v>
+      </c>
+      <c r="M64" t="s">
+        <v>120</v>
+      </c>
+      <c r="N64" t="s">
+        <v>119</v>
+      </c>
+      <c r="O64" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="65" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A65" s="4" t="str">
+        <f>CONCATENATE("1.",Table14[[#This Row],[no]],".",Table14[[#This Row],[world]],".",Table14[[#This Row],[dungeon]],".",Table14[[#This Row],[set]],".",Table14[[#This Row],[title]])</f>
+        <v>1.62.Light.SilentE.5.Item</v>
+      </c>
+      <c r="B65">
+        <v>62</v>
+      </c>
+      <c r="C65" t="s">
+        <v>102</v>
+      </c>
+      <c r="D65" t="s">
+        <v>242</v>
+      </c>
+      <c r="E65">
+        <v>5</v>
+      </c>
+      <c r="F65" t="s">
+        <v>119</v>
+      </c>
+      <c r="G65" t="s">
+        <v>243</v>
+      </c>
+      <c r="H65" t="s">
+        <v>193</v>
+      </c>
+      <c r="I65" t="str">
+        <f>_xlfn.CONCAT("{",Table14[[#This Row],[owner]],"}")</f>
+        <v>{barbarian}</v>
+      </c>
+      <c r="J65" s="4">
+        <v>23</v>
+      </c>
+      <c r="K65" s="4" t="str">
+        <f>_xlfn.CONCAT(Table14[[#This Row],[owner]], Table14[[#This Row],[count]], ".png")</f>
+        <v>barbarian23.png</v>
+      </c>
+      <c r="L65" t="s">
+        <v>108</v>
+      </c>
+      <c r="M65" t="s">
+        <v>120</v>
+      </c>
+      <c r="N65" t="s">
+        <v>119</v>
+      </c>
+      <c r="O65" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="66" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A66" s="4" t="str">
+        <f>CONCATENATE("1.",Table14[[#This Row],[no]],".",Table14[[#This Row],[world]],".",Table14[[#This Row],[dungeon]],".",Table14[[#This Row],[set]],".",Table14[[#This Row],[title]])</f>
+        <v>1.63.Light.SilentE.5.Item</v>
+      </c>
+      <c r="B66">
+        <v>63</v>
+      </c>
+      <c r="C66" t="s">
+        <v>102</v>
+      </c>
+      <c r="D66" t="s">
+        <v>242</v>
+      </c>
+      <c r="E66">
+        <v>5</v>
+      </c>
+      <c r="F66" t="s">
+        <v>119</v>
+      </c>
+      <c r="G66" t="s">
+        <v>243</v>
+      </c>
+      <c r="H66" t="s">
+        <v>192</v>
+      </c>
+      <c r="I66" t="str">
+        <f>_xlfn.CONCAT("{",Table14[[#This Row],[owner]],"}")</f>
+        <v>{cleric}</v>
+      </c>
+      <c r="J66" s="4">
+        <v>23</v>
+      </c>
+      <c r="K66" s="4" t="str">
+        <f>_xlfn.CONCAT(Table14[[#This Row],[owner]], Table14[[#This Row],[count]], ".png")</f>
+        <v>cleric23.png</v>
+      </c>
+      <c r="L66" t="s">
+        <v>108</v>
+      </c>
+      <c r="M66" t="s">
+        <v>120</v>
+      </c>
+      <c r="N66" t="s">
+        <v>119</v>
+      </c>
+      <c r="O66" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="67" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A67" s="4" t="str">
+        <f>CONCATENATE("1.",Table14[[#This Row],[no]],".",Table14[[#This Row],[world]],".",Table14[[#This Row],[dungeon]],".",Table14[[#This Row],[set]],".",Table14[[#This Row],[title]])</f>
+        <v>1.64.Light.SilentE.5.Item</v>
+      </c>
+      <c r="B67">
+        <v>64</v>
+      </c>
+      <c r="C67" t="s">
+        <v>102</v>
+      </c>
+      <c r="D67" t="s">
+        <v>242</v>
+      </c>
+      <c r="E67">
+        <v>5</v>
+      </c>
+      <c r="F67" t="s">
+        <v>119</v>
+      </c>
+      <c r="G67" t="s">
+        <v>243</v>
+      </c>
+      <c r="H67" t="s">
+        <v>197</v>
+      </c>
+      <c r="I67" t="str">
+        <f>_xlfn.CONCAT("{",Table14[[#This Row],[owner]],"}")</f>
+        <v>{druid}</v>
+      </c>
+      <c r="J67" s="4">
+        <v>23</v>
+      </c>
+      <c r="K67" s="4" t="str">
+        <f>_xlfn.CONCAT(Table14[[#This Row],[owner]], Table14[[#This Row],[count]], ".png")</f>
+        <v>druid23.png</v>
+      </c>
+      <c r="L67" t="s">
+        <v>108</v>
+      </c>
+      <c r="M67" t="s">
+        <v>120</v>
+      </c>
+      <c r="N67" t="s">
+        <v>119</v>
+      </c>
+      <c r="O67" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="68" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A68" s="4" t="str">
+        <f>CONCATENATE("1.",Table14[[#This Row],[no]],".",Table14[[#This Row],[world]],".",Table14[[#This Row],[dungeon]],".",Table14[[#This Row],[set]],".",Table14[[#This Row],[title]])</f>
+        <v>1.65.Light.SilentE.5.Item</v>
+      </c>
+      <c r="B68">
+        <v>65</v>
+      </c>
+      <c r="C68" t="s">
+        <v>102</v>
+      </c>
+      <c r="D68" t="s">
+        <v>242</v>
+      </c>
+      <c r="E68">
+        <v>5</v>
+      </c>
+      <c r="F68" t="s">
+        <v>119</v>
+      </c>
+      <c r="G68" t="s">
+        <v>243</v>
+      </c>
+      <c r="H68" t="s">
+        <v>196</v>
+      </c>
+      <c r="I68" t="str">
+        <f>_xlfn.CONCAT("{",Table14[[#This Row],[owner]],"}")</f>
+        <v>{rogue}</v>
+      </c>
+      <c r="J68" s="4">
+        <v>23</v>
+      </c>
+      <c r="K68" s="4" t="str">
+        <f>_xlfn.CONCAT(Table14[[#This Row],[owner]], Table14[[#This Row],[count]], ".png")</f>
+        <v>rogue23.png</v>
+      </c>
+      <c r="L68" t="s">
+        <v>108</v>
+      </c>
+      <c r="M68" t="s">
+        <v>120</v>
+      </c>
+      <c r="N68" t="s">
+        <v>119</v>
+      </c>
+      <c r="O68" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="69" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A69" s="4" t="str">
+        <f>CONCATENATE("1.",Table14[[#This Row],[no]],".",Table14[[#This Row],[world]],".",Table14[[#This Row],[dungeon]],".",Table14[[#This Row],[set]],".",Table14[[#This Row],[title]])</f>
+        <v>1.66.Light.SilentE.5.Item</v>
+      </c>
+      <c r="B69">
+        <v>66</v>
+      </c>
+      <c r="C69" t="s">
+        <v>102</v>
+      </c>
+      <c r="D69" t="s">
+        <v>242</v>
+      </c>
+      <c r="E69">
+        <v>5</v>
+      </c>
+      <c r="F69" t="s">
+        <v>119</v>
+      </c>
+      <c r="G69" t="s">
+        <v>243</v>
+      </c>
+      <c r="H69" t="s">
+        <v>195</v>
+      </c>
+      <c r="I69" t="str">
+        <f>_xlfn.CONCAT("{",Table14[[#This Row],[owner]],"}")</f>
+        <v>{wizard}</v>
+      </c>
+      <c r="J69" s="4">
+        <v>23</v>
+      </c>
+      <c r="K69" s="4" t="str">
+        <f>_xlfn.CONCAT(Table14[[#This Row],[owner]], Table14[[#This Row],[count]], ".png")</f>
+        <v>wizard23.png</v>
+      </c>
+      <c r="L69" t="s">
+        <v>108</v>
+      </c>
+      <c r="M69" t="s">
+        <v>120</v>
+      </c>
+      <c r="N69" t="s">
+        <v>119</v>
+      </c>
+      <c r="O69" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="70" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A70" s="4" t="str">
+        <f>CONCATENATE("1.",Table14[[#This Row],[no]],".",Table14[[#This Row],[world]],".",Table14[[#This Row],[dungeon]],".",Table14[[#This Row],[set]],".",Table14[[#This Row],[title]])</f>
+        <v>1.67.Light.SilentE.5.Item</v>
+      </c>
+      <c r="B70">
+        <v>67</v>
+      </c>
+      <c r="C70" t="s">
+        <v>102</v>
+      </c>
+      <c r="D70" t="s">
+        <v>242</v>
+      </c>
+      <c r="E70">
+        <v>5</v>
+      </c>
+      <c r="F70" t="s">
+        <v>119</v>
+      </c>
+      <c r="G70" t="s">
+        <v>243</v>
+      </c>
+      <c r="H70" t="s">
+        <v>194</v>
+      </c>
+      <c r="I70" t="str">
+        <f>_xlfn.CONCAT("{",Table14[[#This Row],[owner]],"}")</f>
+        <v>{gladiator}</v>
+      </c>
+      <c r="J70" s="4">
+        <f>J64+1</f>
+        <v>24</v>
+      </c>
+      <c r="K70" s="4" t="str">
+        <f>_xlfn.CONCAT(Table14[[#This Row],[owner]], Table14[[#This Row],[count]], ".png")</f>
+        <v>gladiator24.png</v>
+      </c>
+      <c r="L70" t="s">
+        <v>108</v>
+      </c>
+      <c r="M70" t="s">
+        <v>120</v>
+      </c>
+      <c r="N70" t="s">
+        <v>119</v>
+      </c>
+      <c r="O70" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="71" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A71" s="4" t="str">
+        <f>CONCATENATE("1.",Table14[[#This Row],[no]],".",Table14[[#This Row],[world]],".",Table14[[#This Row],[dungeon]],".",Table14[[#This Row],[set]],".",Table14[[#This Row],[title]])</f>
+        <v>1.68.Light.SilentE.5.Item</v>
+      </c>
+      <c r="B71">
+        <v>68</v>
+      </c>
+      <c r="C71" t="s">
+        <v>102</v>
+      </c>
+      <c r="D71" t="s">
+        <v>242</v>
+      </c>
+      <c r="E71">
+        <v>5</v>
+      </c>
+      <c r="F71" t="s">
+        <v>119</v>
+      </c>
+      <c r="G71" t="s">
+        <v>243</v>
+      </c>
+      <c r="H71" t="s">
+        <v>193</v>
+      </c>
+      <c r="I71" t="str">
+        <f>_xlfn.CONCAT("{",Table14[[#This Row],[owner]],"}")</f>
+        <v>{barbarian}</v>
+      </c>
+      <c r="J71" s="4">
+        <f t="shared" ref="J71:J103" si="0">J65+1</f>
+        <v>24</v>
+      </c>
+      <c r="K71" s="4" t="str">
+        <f>_xlfn.CONCAT(Table14[[#This Row],[owner]], Table14[[#This Row],[count]], ".png")</f>
+        <v>barbarian24.png</v>
+      </c>
+      <c r="L71" t="s">
+        <v>108</v>
+      </c>
+      <c r="M71" t="s">
+        <v>120</v>
+      </c>
+      <c r="N71" t="s">
+        <v>119</v>
+      </c>
+      <c r="O71" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="72" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A72" s="4" t="str">
+        <f>CONCATENATE("1.",Table14[[#This Row],[no]],".",Table14[[#This Row],[world]],".",Table14[[#This Row],[dungeon]],".",Table14[[#This Row],[set]],".",Table14[[#This Row],[title]])</f>
+        <v>1.69.Light.SilentE.5.Item</v>
+      </c>
+      <c r="B72">
+        <v>69</v>
+      </c>
+      <c r="C72" t="s">
+        <v>102</v>
+      </c>
+      <c r="D72" t="s">
+        <v>242</v>
+      </c>
+      <c r="E72">
+        <v>5</v>
+      </c>
+      <c r="F72" t="s">
+        <v>119</v>
+      </c>
+      <c r="G72" t="s">
+        <v>243</v>
+      </c>
+      <c r="H72" t="s">
+        <v>192</v>
+      </c>
+      <c r="I72" t="str">
+        <f>_xlfn.CONCAT("{",Table14[[#This Row],[owner]],"}")</f>
+        <v>{cleric}</v>
+      </c>
+      <c r="J72" s="4">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+      <c r="K72" s="4" t="str">
+        <f>_xlfn.CONCAT(Table14[[#This Row],[owner]], Table14[[#This Row],[count]], ".png")</f>
+        <v>cleric24.png</v>
+      </c>
+      <c r="L72" t="s">
+        <v>108</v>
+      </c>
+      <c r="M72" t="s">
+        <v>120</v>
+      </c>
+      <c r="N72" t="s">
+        <v>119</v>
+      </c>
+      <c r="O72" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="73" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A73" s="4" t="str">
+        <f>CONCATENATE("1.",Table14[[#This Row],[no]],".",Table14[[#This Row],[world]],".",Table14[[#This Row],[dungeon]],".",Table14[[#This Row],[set]],".",Table14[[#This Row],[title]])</f>
+        <v>1.70.Light.SilentE.5.Item</v>
+      </c>
+      <c r="B73">
+        <v>70</v>
+      </c>
+      <c r="C73" t="s">
+        <v>102</v>
+      </c>
+      <c r="D73" t="s">
+        <v>242</v>
+      </c>
+      <c r="E73">
+        <v>5</v>
+      </c>
+      <c r="F73" t="s">
+        <v>119</v>
+      </c>
+      <c r="G73" t="s">
+        <v>243</v>
+      </c>
+      <c r="H73" t="s">
+        <v>197</v>
+      </c>
+      <c r="I73" t="str">
+        <f>_xlfn.CONCAT("{",Table14[[#This Row],[owner]],"}")</f>
+        <v>{druid}</v>
+      </c>
+      <c r="J73" s="4">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+      <c r="K73" s="4" t="str">
+        <f>_xlfn.CONCAT(Table14[[#This Row],[owner]], Table14[[#This Row],[count]], ".png")</f>
+        <v>druid24.png</v>
+      </c>
+      <c r="L73" t="s">
+        <v>108</v>
+      </c>
+      <c r="M73" t="s">
+        <v>120</v>
+      </c>
+      <c r="N73" t="s">
+        <v>119</v>
+      </c>
+      <c r="O73" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="74" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A74" s="4" t="str">
+        <f>CONCATENATE("1.",Table14[[#This Row],[no]],".",Table14[[#This Row],[world]],".",Table14[[#This Row],[dungeon]],".",Table14[[#This Row],[set]],".",Table14[[#This Row],[title]])</f>
+        <v>1.71.Light.SilentE.5.Item</v>
+      </c>
+      <c r="B74">
+        <v>71</v>
+      </c>
+      <c r="C74" t="s">
+        <v>102</v>
+      </c>
+      <c r="D74" t="s">
+        <v>242</v>
+      </c>
+      <c r="E74">
+        <v>5</v>
+      </c>
+      <c r="F74" t="s">
+        <v>119</v>
+      </c>
+      <c r="G74" t="s">
+        <v>243</v>
+      </c>
+      <c r="H74" t="s">
+        <v>196</v>
+      </c>
+      <c r="I74" t="str">
+        <f>_xlfn.CONCAT("{",Table14[[#This Row],[owner]],"}")</f>
+        <v>{rogue}</v>
+      </c>
+      <c r="J74" s="4">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+      <c r="K74" s="4" t="str">
+        <f>_xlfn.CONCAT(Table14[[#This Row],[owner]], Table14[[#This Row],[count]], ".png")</f>
+        <v>rogue24.png</v>
+      </c>
+      <c r="L74" t="s">
+        <v>108</v>
+      </c>
+      <c r="M74" t="s">
+        <v>120</v>
+      </c>
+      <c r="N74" t="s">
+        <v>119</v>
+      </c>
+      <c r="O74" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="75" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A75" s="4" t="str">
+        <f>CONCATENATE("1.",Table14[[#This Row],[no]],".",Table14[[#This Row],[world]],".",Table14[[#This Row],[dungeon]],".",Table14[[#This Row],[set]],".",Table14[[#This Row],[title]])</f>
+        <v>1.72.Light.SilentE.5.Item</v>
+      </c>
+      <c r="B75">
+        <v>72</v>
+      </c>
+      <c r="C75" t="s">
+        <v>102</v>
+      </c>
+      <c r="D75" t="s">
+        <v>242</v>
+      </c>
+      <c r="E75">
+        <v>5</v>
+      </c>
+      <c r="F75" t="s">
+        <v>119</v>
+      </c>
+      <c r="G75" t="s">
+        <v>243</v>
+      </c>
+      <c r="H75" t="s">
+        <v>195</v>
+      </c>
+      <c r="I75" t="str">
+        <f>_xlfn.CONCAT("{",Table14[[#This Row],[owner]],"}")</f>
+        <v>{wizard}</v>
+      </c>
+      <c r="J75" s="4">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+      <c r="K75" s="4" t="str">
+        <f>_xlfn.CONCAT(Table14[[#This Row],[owner]], Table14[[#This Row],[count]], ".png")</f>
+        <v>wizard24.png</v>
+      </c>
+      <c r="L75" t="s">
+        <v>108</v>
+      </c>
+      <c r="M75" t="s">
+        <v>120</v>
+      </c>
+      <c r="N75" t="s">
+        <v>119</v>
+      </c>
+      <c r="O75" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="76" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A76" s="4" t="str">
+        <f>CONCATENATE("1.",Table14[[#This Row],[no]],".",Table14[[#This Row],[world]],".",Table14[[#This Row],[dungeon]],".",Table14[[#This Row],[set]],".",Table14[[#This Row],[title]])</f>
+        <v>1.73.Light.SilentE.5.Item</v>
+      </c>
+      <c r="B76">
+        <v>73</v>
+      </c>
+      <c r="C76" t="s">
+        <v>102</v>
+      </c>
+      <c r="D76" t="s">
+        <v>242</v>
+      </c>
+      <c r="E76">
+        <v>5</v>
+      </c>
+      <c r="F76" t="s">
+        <v>119</v>
+      </c>
+      <c r="G76" t="s">
+        <v>243</v>
+      </c>
+      <c r="H76" t="s">
+        <v>194</v>
+      </c>
+      <c r="I76" t="str">
+        <f>_xlfn.CONCAT("{",Table14[[#This Row],[owner]],"}")</f>
+        <v>{gladiator}</v>
+      </c>
+      <c r="J76" s="4">
+        <f t="shared" si="0"/>
+        <v>25</v>
+      </c>
+      <c r="K76" s="4" t="str">
+        <f>_xlfn.CONCAT(Table14[[#This Row],[owner]], Table14[[#This Row],[count]], ".png")</f>
+        <v>gladiator25.png</v>
+      </c>
+      <c r="L76" t="s">
+        <v>108</v>
+      </c>
+      <c r="M76" t="s">
+        <v>120</v>
+      </c>
+      <c r="N76" t="s">
+        <v>119</v>
+      </c>
+      <c r="O76" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="77" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A77" s="4" t="str">
+        <f>CONCATENATE("1.",Table14[[#This Row],[no]],".",Table14[[#This Row],[world]],".",Table14[[#This Row],[dungeon]],".",Table14[[#This Row],[set]],".",Table14[[#This Row],[title]])</f>
+        <v>1.74.Light.SilentE.5.Item</v>
+      </c>
+      <c r="B77">
+        <v>74</v>
+      </c>
+      <c r="C77" t="s">
+        <v>102</v>
+      </c>
+      <c r="D77" t="s">
+        <v>242</v>
+      </c>
+      <c r="E77">
+        <v>5</v>
+      </c>
+      <c r="F77" t="s">
+        <v>119</v>
+      </c>
+      <c r="G77" t="s">
+        <v>243</v>
+      </c>
+      <c r="H77" t="s">
+        <v>193</v>
+      </c>
+      <c r="I77" t="str">
+        <f>_xlfn.CONCAT("{",Table14[[#This Row],[owner]],"}")</f>
+        <v>{barbarian}</v>
+      </c>
+      <c r="J77" s="4">
+        <f t="shared" si="0"/>
+        <v>25</v>
+      </c>
+      <c r="K77" s="4" t="str">
+        <f>_xlfn.CONCAT(Table14[[#This Row],[owner]], Table14[[#This Row],[count]], ".png")</f>
+        <v>barbarian25.png</v>
+      </c>
+      <c r="L77" t="s">
+        <v>108</v>
+      </c>
+      <c r="M77" t="s">
+        <v>120</v>
+      </c>
+      <c r="N77" t="s">
+        <v>119</v>
+      </c>
+      <c r="O77" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="78" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A78" s="4" t="str">
+        <f>CONCATENATE("1.",Table14[[#This Row],[no]],".",Table14[[#This Row],[world]],".",Table14[[#This Row],[dungeon]],".",Table14[[#This Row],[set]],".",Table14[[#This Row],[title]])</f>
+        <v>1.75.Light.SilentE.5.Item</v>
+      </c>
+      <c r="B78">
+        <v>75</v>
+      </c>
+      <c r="C78" t="s">
+        <v>102</v>
+      </c>
+      <c r="D78" t="s">
+        <v>242</v>
+      </c>
+      <c r="E78">
+        <v>5</v>
+      </c>
+      <c r="F78" t="s">
+        <v>119</v>
+      </c>
+      <c r="G78" t="s">
+        <v>243</v>
+      </c>
+      <c r="H78" t="s">
+        <v>192</v>
+      </c>
+      <c r="I78" t="str">
+        <f>_xlfn.CONCAT("{",Table14[[#This Row],[owner]],"}")</f>
+        <v>{cleric}</v>
+      </c>
+      <c r="J78" s="4">
+        <f t="shared" si="0"/>
+        <v>25</v>
+      </c>
+      <c r="K78" s="4" t="str">
+        <f>_xlfn.CONCAT(Table14[[#This Row],[owner]], Table14[[#This Row],[count]], ".png")</f>
+        <v>cleric25.png</v>
+      </c>
+      <c r="L78" t="s">
+        <v>108</v>
+      </c>
+      <c r="M78" t="s">
+        <v>120</v>
+      </c>
+      <c r="N78" t="s">
+        <v>119</v>
+      </c>
+      <c r="O78" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="79" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A79" s="4" t="str">
+        <f>CONCATENATE("1.",Table14[[#This Row],[no]],".",Table14[[#This Row],[world]],".",Table14[[#This Row],[dungeon]],".",Table14[[#This Row],[set]],".",Table14[[#This Row],[title]])</f>
+        <v>1.76.Light.SilentE.5.Item</v>
+      </c>
+      <c r="B79">
+        <v>76</v>
+      </c>
+      <c r="C79" t="s">
+        <v>102</v>
+      </c>
+      <c r="D79" t="s">
+        <v>242</v>
+      </c>
+      <c r="E79">
+        <v>5</v>
+      </c>
+      <c r="F79" t="s">
+        <v>119</v>
+      </c>
+      <c r="G79" t="s">
+        <v>243</v>
+      </c>
+      <c r="H79" t="s">
+        <v>197</v>
+      </c>
+      <c r="I79" t="str">
+        <f>_xlfn.CONCAT("{",Table14[[#This Row],[owner]],"}")</f>
+        <v>{druid}</v>
+      </c>
+      <c r="J79" s="4">
+        <f t="shared" si="0"/>
+        <v>25</v>
+      </c>
+      <c r="K79" s="4" t="str">
+        <f>_xlfn.CONCAT(Table14[[#This Row],[owner]], Table14[[#This Row],[count]], ".png")</f>
+        <v>druid25.png</v>
+      </c>
+      <c r="L79" t="s">
+        <v>108</v>
+      </c>
+      <c r="M79" t="s">
+        <v>120</v>
+      </c>
+      <c r="N79" t="s">
+        <v>119</v>
+      </c>
+      <c r="O79" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="80" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A80" s="4" t="str">
+        <f>CONCATENATE("1.",Table14[[#This Row],[no]],".",Table14[[#This Row],[world]],".",Table14[[#This Row],[dungeon]],".",Table14[[#This Row],[set]],".",Table14[[#This Row],[title]])</f>
+        <v>1.77.Light.SilentE.5.Item</v>
+      </c>
+      <c r="B80">
+        <v>77</v>
+      </c>
+      <c r="C80" t="s">
+        <v>102</v>
+      </c>
+      <c r="D80" t="s">
+        <v>242</v>
+      </c>
+      <c r="E80">
+        <v>5</v>
+      </c>
+      <c r="F80" t="s">
+        <v>119</v>
+      </c>
+      <c r="G80" t="s">
+        <v>243</v>
+      </c>
+      <c r="H80" t="s">
+        <v>196</v>
+      </c>
+      <c r="I80" t="str">
+        <f>_xlfn.CONCAT("{",Table14[[#This Row],[owner]],"}")</f>
+        <v>{rogue}</v>
+      </c>
+      <c r="J80" s="4">
+        <f t="shared" si="0"/>
+        <v>25</v>
+      </c>
+      <c r="K80" s="4" t="str">
+        <f>_xlfn.CONCAT(Table14[[#This Row],[owner]], Table14[[#This Row],[count]], ".png")</f>
+        <v>rogue25.png</v>
+      </c>
+      <c r="L80" t="s">
+        <v>108</v>
+      </c>
+      <c r="M80" t="s">
+        <v>120</v>
+      </c>
+      <c r="N80" t="s">
+        <v>119</v>
+      </c>
+      <c r="O80" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="81" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A81" s="4" t="str">
+        <f>CONCATENATE("1.",Table14[[#This Row],[no]],".",Table14[[#This Row],[world]],".",Table14[[#This Row],[dungeon]],".",Table14[[#This Row],[set]],".",Table14[[#This Row],[title]])</f>
+        <v>1.78.Light.SilentE.5.Item</v>
+      </c>
+      <c r="B81">
+        <v>78</v>
+      </c>
+      <c r="C81" t="s">
+        <v>102</v>
+      </c>
+      <c r="D81" t="s">
+        <v>242</v>
+      </c>
+      <c r="E81">
+        <v>5</v>
+      </c>
+      <c r="F81" t="s">
+        <v>119</v>
+      </c>
+      <c r="G81" t="s">
+        <v>243</v>
+      </c>
+      <c r="H81" t="s">
+        <v>195</v>
+      </c>
+      <c r="I81" t="str">
+        <f>_xlfn.CONCAT("{",Table14[[#This Row],[owner]],"}")</f>
+        <v>{wizard}</v>
+      </c>
+      <c r="J81" s="4">
+        <f t="shared" si="0"/>
+        <v>25</v>
+      </c>
+      <c r="K81" s="4" t="str">
+        <f>_xlfn.CONCAT(Table14[[#This Row],[owner]], Table14[[#This Row],[count]], ".png")</f>
+        <v>wizard25.png</v>
+      </c>
+      <c r="L81" t="s">
+        <v>108</v>
+      </c>
+      <c r="M81" t="s">
+        <v>120</v>
+      </c>
+      <c r="N81" t="s">
+        <v>119</v>
+      </c>
+      <c r="O81" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="82" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A82" s="4" t="str">
+        <f>CONCATENATE("1.",Table14[[#This Row],[no]],".",Table14[[#This Row],[world]],".",Table14[[#This Row],[dungeon]],".",Table14[[#This Row],[set]],".",Table14[[#This Row],[title]])</f>
+        <v>1.79.Light.SilentE.5.Item</v>
+      </c>
+      <c r="B82">
+        <v>79</v>
+      </c>
+      <c r="C82" t="s">
+        <v>102</v>
+      </c>
+      <c r="D82" t="s">
+        <v>242</v>
+      </c>
+      <c r="E82">
+        <v>5</v>
+      </c>
+      <c r="F82" t="s">
+        <v>119</v>
+      </c>
+      <c r="G82" t="s">
+        <v>243</v>
+      </c>
+      <c r="H82" t="s">
+        <v>194</v>
+      </c>
+      <c r="I82" t="str">
+        <f>_xlfn.CONCAT("{",Table14[[#This Row],[owner]],"}")</f>
+        <v>{gladiator}</v>
+      </c>
+      <c r="J82" s="4">
+        <f t="shared" si="0"/>
+        <v>26</v>
+      </c>
+      <c r="K82" s="4" t="str">
+        <f>_xlfn.CONCAT(Table14[[#This Row],[owner]], Table14[[#This Row],[count]], ".png")</f>
+        <v>gladiator26.png</v>
+      </c>
+      <c r="L82" t="s">
+        <v>108</v>
+      </c>
+      <c r="M82" t="s">
+        <v>120</v>
+      </c>
+      <c r="N82" t="s">
+        <v>119</v>
+      </c>
+      <c r="O82" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="83" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A83" s="4" t="str">
+        <f>CONCATENATE("1.",Table14[[#This Row],[no]],".",Table14[[#This Row],[world]],".",Table14[[#This Row],[dungeon]],".",Table14[[#This Row],[set]],".",Table14[[#This Row],[title]])</f>
+        <v>1.80.Light.SilentE.5.Item</v>
+      </c>
+      <c r="B83">
+        <v>80</v>
+      </c>
+      <c r="C83" t="s">
+        <v>102</v>
+      </c>
+      <c r="D83" t="s">
+        <v>242</v>
+      </c>
+      <c r="E83">
+        <v>5</v>
+      </c>
+      <c r="F83" t="s">
+        <v>119</v>
+      </c>
+      <c r="G83" t="s">
+        <v>243</v>
+      </c>
+      <c r="H83" t="s">
+        <v>193</v>
+      </c>
+      <c r="I83" t="str">
+        <f>_xlfn.CONCAT("{",Table14[[#This Row],[owner]],"}")</f>
+        <v>{barbarian}</v>
+      </c>
+      <c r="J83" s="4">
+        <f t="shared" si="0"/>
+        <v>26</v>
+      </c>
+      <c r="K83" s="4" t="str">
+        <f>_xlfn.CONCAT(Table14[[#This Row],[owner]], Table14[[#This Row],[count]], ".png")</f>
+        <v>barbarian26.png</v>
+      </c>
+      <c r="L83" t="s">
+        <v>108</v>
+      </c>
+      <c r="M83" t="s">
+        <v>120</v>
+      </c>
+      <c r="N83" t="s">
+        <v>119</v>
+      </c>
+      <c r="O83" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="84" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A84" s="4" t="str">
+        <f>CONCATENATE("1.",Table14[[#This Row],[no]],".",Table14[[#This Row],[world]],".",Table14[[#This Row],[dungeon]],".",Table14[[#This Row],[set]],".",Table14[[#This Row],[title]])</f>
+        <v>1.81.Light.SilentE.5.Item</v>
+      </c>
+      <c r="B84">
+        <v>81</v>
+      </c>
+      <c r="C84" t="s">
+        <v>102</v>
+      </c>
+      <c r="D84" t="s">
+        <v>242</v>
+      </c>
+      <c r="E84">
+        <v>5</v>
+      </c>
+      <c r="F84" t="s">
+        <v>119</v>
+      </c>
+      <c r="G84" t="s">
+        <v>243</v>
+      </c>
+      <c r="H84" t="s">
+        <v>192</v>
+      </c>
+      <c r="I84" t="str">
+        <f>_xlfn.CONCAT("{",Table14[[#This Row],[owner]],"}")</f>
+        <v>{cleric}</v>
+      </c>
+      <c r="J84" s="4">
+        <f t="shared" si="0"/>
+        <v>26</v>
+      </c>
+      <c r="K84" s="4" t="str">
+        <f>_xlfn.CONCAT(Table14[[#This Row],[owner]], Table14[[#This Row],[count]], ".png")</f>
+        <v>cleric26.png</v>
+      </c>
+      <c r="L84" t="s">
+        <v>108</v>
+      </c>
+      <c r="M84" t="s">
+        <v>120</v>
+      </c>
+      <c r="N84" t="s">
+        <v>119</v>
+      </c>
+      <c r="O84" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="85" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A85" s="4" t="str">
+        <f>CONCATENATE("1.",Table14[[#This Row],[no]],".",Table14[[#This Row],[world]],".",Table14[[#This Row],[dungeon]],".",Table14[[#This Row],[set]],".",Table14[[#This Row],[title]])</f>
+        <v>1.82.Light.SilentE.5.Item</v>
+      </c>
+      <c r="B85">
+        <v>82</v>
+      </c>
+      <c r="C85" t="s">
+        <v>102</v>
+      </c>
+      <c r="D85" t="s">
+        <v>242</v>
+      </c>
+      <c r="E85">
+        <v>5</v>
+      </c>
+      <c r="F85" t="s">
+        <v>119</v>
+      </c>
+      <c r="G85" t="s">
+        <v>243</v>
+      </c>
+      <c r="H85" t="s">
+        <v>197</v>
+      </c>
+      <c r="I85" t="str">
+        <f>_xlfn.CONCAT("{",Table14[[#This Row],[owner]],"}")</f>
+        <v>{druid}</v>
+      </c>
+      <c r="J85" s="4">
+        <f t="shared" si="0"/>
+        <v>26</v>
+      </c>
+      <c r="K85" s="4" t="str">
+        <f>_xlfn.CONCAT(Table14[[#This Row],[owner]], Table14[[#This Row],[count]], ".png")</f>
+        <v>druid26.png</v>
+      </c>
+      <c r="L85" t="s">
+        <v>108</v>
+      </c>
+      <c r="M85" t="s">
+        <v>120</v>
+      </c>
+      <c r="N85" t="s">
+        <v>119</v>
+      </c>
+      <c r="O85" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="86" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A86" s="4" t="str">
+        <f>CONCATENATE("1.",Table14[[#This Row],[no]],".",Table14[[#This Row],[world]],".",Table14[[#This Row],[dungeon]],".",Table14[[#This Row],[set]],".",Table14[[#This Row],[title]])</f>
+        <v>1.83.Light.SilentE.5.Item</v>
+      </c>
+      <c r="B86">
+        <v>83</v>
+      </c>
+      <c r="C86" t="s">
+        <v>102</v>
+      </c>
+      <c r="D86" t="s">
+        <v>242</v>
+      </c>
+      <c r="E86">
+        <v>5</v>
+      </c>
+      <c r="F86" t="s">
+        <v>119</v>
+      </c>
+      <c r="G86" t="s">
+        <v>243</v>
+      </c>
+      <c r="H86" t="s">
+        <v>196</v>
+      </c>
+      <c r="I86" t="str">
+        <f>_xlfn.CONCAT("{",Table14[[#This Row],[owner]],"}")</f>
+        <v>{rogue}</v>
+      </c>
+      <c r="J86" s="4">
+        <f t="shared" si="0"/>
+        <v>26</v>
+      </c>
+      <c r="K86" s="4" t="str">
+        <f>_xlfn.CONCAT(Table14[[#This Row],[owner]], Table14[[#This Row],[count]], ".png")</f>
+        <v>rogue26.png</v>
+      </c>
+      <c r="L86" t="s">
+        <v>108</v>
+      </c>
+      <c r="M86" t="s">
+        <v>120</v>
+      </c>
+      <c r="N86" t="s">
+        <v>119</v>
+      </c>
+      <c r="O86" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="87" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A87" s="4" t="str">
+        <f>CONCATENATE("1.",Table14[[#This Row],[no]],".",Table14[[#This Row],[world]],".",Table14[[#This Row],[dungeon]],".",Table14[[#This Row],[set]],".",Table14[[#This Row],[title]])</f>
+        <v>1.84.Light.SilentE.5.Item</v>
+      </c>
+      <c r="B87">
+        <v>84</v>
+      </c>
+      <c r="C87" t="s">
+        <v>102</v>
+      </c>
+      <c r="D87" t="s">
+        <v>242</v>
+      </c>
+      <c r="E87">
+        <v>5</v>
+      </c>
+      <c r="F87" t="s">
+        <v>119</v>
+      </c>
+      <c r="G87" t="s">
+        <v>243</v>
+      </c>
+      <c r="H87" t="s">
+        <v>195</v>
+      </c>
+      <c r="I87" t="str">
+        <f>_xlfn.CONCAT("{",Table14[[#This Row],[owner]],"}")</f>
+        <v>{wizard}</v>
+      </c>
+      <c r="J87" s="4">
+        <f t="shared" si="0"/>
+        <v>26</v>
+      </c>
+      <c r="K87" s="4" t="str">
+        <f>_xlfn.CONCAT(Table14[[#This Row],[owner]], Table14[[#This Row],[count]], ".png")</f>
+        <v>wizard26.png</v>
+      </c>
+      <c r="L87" t="s">
+        <v>108</v>
+      </c>
+      <c r="M87" t="s">
+        <v>120</v>
+      </c>
+      <c r="N87" t="s">
+        <v>119</v>
+      </c>
+      <c r="O87" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="88" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A88" s="4" t="str">
+        <f>CONCATENATE("1.",Table14[[#This Row],[no]],".",Table14[[#This Row],[world]],".",Table14[[#This Row],[dungeon]],".",Table14[[#This Row],[set]],".",Table14[[#This Row],[title]])</f>
+        <v>1.85.Light.SilentE.5.Item</v>
+      </c>
+      <c r="B88">
+        <v>85</v>
+      </c>
+      <c r="C88" t="s">
+        <v>102</v>
+      </c>
+      <c r="D88" t="s">
+        <v>242</v>
+      </c>
+      <c r="E88">
+        <v>5</v>
+      </c>
+      <c r="F88" t="s">
+        <v>119</v>
+      </c>
+      <c r="G88" t="s">
+        <v>243</v>
+      </c>
+      <c r="H88" t="s">
+        <v>194</v>
+      </c>
+      <c r="I88" t="str">
+        <f>_xlfn.CONCAT("{",Table14[[#This Row],[owner]],"}")</f>
+        <v>{gladiator}</v>
+      </c>
+      <c r="J88" s="4">
+        <f t="shared" si="0"/>
+        <v>27</v>
+      </c>
+      <c r="K88" s="4" t="str">
+        <f>_xlfn.CONCAT(Table14[[#This Row],[owner]], Table14[[#This Row],[count]], ".png")</f>
+        <v>gladiator27.png</v>
+      </c>
+      <c r="L88" t="s">
+        <v>108</v>
+      </c>
+      <c r="M88" t="s">
+        <v>120</v>
+      </c>
+      <c r="N88" t="s">
+        <v>119</v>
+      </c>
+      <c r="O88" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="89" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A89" s="4" t="str">
+        <f>CONCATENATE("1.",Table14[[#This Row],[no]],".",Table14[[#This Row],[world]],".",Table14[[#This Row],[dungeon]],".",Table14[[#This Row],[set]],".",Table14[[#This Row],[title]])</f>
+        <v>1.86.Light.SilentE.5.Item</v>
+      </c>
+      <c r="B89">
+        <v>86</v>
+      </c>
+      <c r="C89" t="s">
+        <v>102</v>
+      </c>
+      <c r="D89" t="s">
+        <v>242</v>
+      </c>
+      <c r="E89">
+        <v>5</v>
+      </c>
+      <c r="F89" t="s">
+        <v>119</v>
+      </c>
+      <c r="G89" t="s">
+        <v>243</v>
+      </c>
+      <c r="H89" t="s">
+        <v>193</v>
+      </c>
+      <c r="I89" t="str">
+        <f>_xlfn.CONCAT("{",Table14[[#This Row],[owner]],"}")</f>
+        <v>{barbarian}</v>
+      </c>
+      <c r="J89" s="4">
+        <f t="shared" si="0"/>
+        <v>27</v>
+      </c>
+      <c r="K89" s="4" t="str">
+        <f>_xlfn.CONCAT(Table14[[#This Row],[owner]], Table14[[#This Row],[count]], ".png")</f>
+        <v>barbarian27.png</v>
+      </c>
+      <c r="L89" t="s">
+        <v>108</v>
+      </c>
+      <c r="M89" t="s">
+        <v>120</v>
+      </c>
+      <c r="N89" t="s">
+        <v>119</v>
+      </c>
+      <c r="O89" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="90" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A90" s="4" t="str">
+        <f>CONCATENATE("1.",Table14[[#This Row],[no]],".",Table14[[#This Row],[world]],".",Table14[[#This Row],[dungeon]],".",Table14[[#This Row],[set]],".",Table14[[#This Row],[title]])</f>
+        <v>1.87.Light.SilentE.5.Item</v>
+      </c>
+      <c r="B90">
+        <v>87</v>
+      </c>
+      <c r="C90" t="s">
+        <v>102</v>
+      </c>
+      <c r="D90" t="s">
+        <v>242</v>
+      </c>
+      <c r="E90">
+        <v>5</v>
+      </c>
+      <c r="F90" t="s">
+        <v>119</v>
+      </c>
+      <c r="G90" t="s">
+        <v>243</v>
+      </c>
+      <c r="H90" t="s">
+        <v>192</v>
+      </c>
+      <c r="I90" t="str">
+        <f>_xlfn.CONCAT("{",Table14[[#This Row],[owner]],"}")</f>
+        <v>{cleric}</v>
+      </c>
+      <c r="J90" s="4">
+        <f t="shared" si="0"/>
+        <v>27</v>
+      </c>
+      <c r="K90" s="4" t="str">
+        <f>_xlfn.CONCAT(Table14[[#This Row],[owner]], Table14[[#This Row],[count]], ".png")</f>
+        <v>cleric27.png</v>
+      </c>
+      <c r="L90" t="s">
+        <v>108</v>
+      </c>
+      <c r="M90" t="s">
+        <v>120</v>
+      </c>
+      <c r="N90" t="s">
+        <v>119</v>
+      </c>
+      <c r="O90" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="91" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A91" s="4" t="str">
+        <f>CONCATENATE("1.",Table14[[#This Row],[no]],".",Table14[[#This Row],[world]],".",Table14[[#This Row],[dungeon]],".",Table14[[#This Row],[set]],".",Table14[[#This Row],[title]])</f>
+        <v>1.88.Light.SilentE.5.Item</v>
+      </c>
+      <c r="B91">
+        <v>88</v>
+      </c>
+      <c r="C91" t="s">
+        <v>102</v>
+      </c>
+      <c r="D91" t="s">
+        <v>242</v>
+      </c>
+      <c r="E91">
+        <v>5</v>
+      </c>
+      <c r="F91" t="s">
+        <v>119</v>
+      </c>
+      <c r="G91" t="s">
+        <v>243</v>
+      </c>
+      <c r="H91" t="s">
+        <v>197</v>
+      </c>
+      <c r="I91" t="str">
+        <f>_xlfn.CONCAT("{",Table14[[#This Row],[owner]],"}")</f>
+        <v>{druid}</v>
+      </c>
+      <c r="J91" s="4">
+        <f t="shared" si="0"/>
+        <v>27</v>
+      </c>
+      <c r="K91" s="4" t="str">
+        <f>_xlfn.CONCAT(Table14[[#This Row],[owner]], Table14[[#This Row],[count]], ".png")</f>
+        <v>druid27.png</v>
+      </c>
+      <c r="L91" t="s">
+        <v>108</v>
+      </c>
+      <c r="M91" t="s">
+        <v>120</v>
+      </c>
+      <c r="N91" t="s">
+        <v>119</v>
+      </c>
+      <c r="O91" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="92" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A92" s="4" t="str">
+        <f>CONCATENATE("1.",Table14[[#This Row],[no]],".",Table14[[#This Row],[world]],".",Table14[[#This Row],[dungeon]],".",Table14[[#This Row],[set]],".",Table14[[#This Row],[title]])</f>
+        <v>1.89.Light.SilentE.5.Item</v>
+      </c>
+      <c r="B92">
+        <v>89</v>
+      </c>
+      <c r="C92" t="s">
+        <v>102</v>
+      </c>
+      <c r="D92" t="s">
+        <v>242</v>
+      </c>
+      <c r="E92">
+        <v>5</v>
+      </c>
+      <c r="F92" t="s">
+        <v>119</v>
+      </c>
+      <c r="G92" t="s">
+        <v>243</v>
+      </c>
+      <c r="H92" t="s">
+        <v>196</v>
+      </c>
+      <c r="I92" t="str">
+        <f>_xlfn.CONCAT("{",Table14[[#This Row],[owner]],"}")</f>
+        <v>{rogue}</v>
+      </c>
+      <c r="J92" s="4">
+        <f t="shared" si="0"/>
+        <v>27</v>
+      </c>
+      <c r="K92" s="4" t="str">
+        <f>_xlfn.CONCAT(Table14[[#This Row],[owner]], Table14[[#This Row],[count]], ".png")</f>
+        <v>rogue27.png</v>
+      </c>
+      <c r="L92" t="s">
+        <v>108</v>
+      </c>
+      <c r="M92" t="s">
+        <v>120</v>
+      </c>
+      <c r="N92" t="s">
+        <v>119</v>
+      </c>
+      <c r="O92" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="93" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A93" s="4" t="str">
+        <f>CONCATENATE("1.",Table14[[#This Row],[no]],".",Table14[[#This Row],[world]],".",Table14[[#This Row],[dungeon]],".",Table14[[#This Row],[set]],".",Table14[[#This Row],[title]])</f>
+        <v>1.90.Light.SilentE.5.Item</v>
+      </c>
+      <c r="B93">
+        <v>90</v>
+      </c>
+      <c r="C93" t="s">
+        <v>102</v>
+      </c>
+      <c r="D93" t="s">
+        <v>242</v>
+      </c>
+      <c r="E93">
+        <v>5</v>
+      </c>
+      <c r="F93" t="s">
+        <v>119</v>
+      </c>
+      <c r="G93" t="s">
+        <v>243</v>
+      </c>
+      <c r="H93" t="s">
+        <v>195</v>
+      </c>
+      <c r="I93" t="str">
+        <f>_xlfn.CONCAT("{",Table14[[#This Row],[owner]],"}")</f>
+        <v>{wizard}</v>
+      </c>
+      <c r="J93" s="4">
+        <f t="shared" si="0"/>
+        <v>27</v>
+      </c>
+      <c r="K93" s="4" t="str">
+        <f>_xlfn.CONCAT(Table14[[#This Row],[owner]], Table14[[#This Row],[count]], ".png")</f>
+        <v>wizard27.png</v>
+      </c>
+      <c r="L93" t="s">
+        <v>108</v>
+      </c>
+      <c r="M93" t="s">
+        <v>120</v>
+      </c>
+      <c r="N93" t="s">
+        <v>119</v>
+      </c>
+      <c r="O93" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="94" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A94" s="4" t="str">
+        <f>CONCATENATE("1.",Table14[[#This Row],[no]],".",Table14[[#This Row],[world]],".",Table14[[#This Row],[dungeon]],".",Table14[[#This Row],[set]],".",Table14[[#This Row],[title]])</f>
+        <v>1.91.Light.SilentE.5.Item</v>
+      </c>
+      <c r="B94">
+        <v>91</v>
+      </c>
+      <c r="C94" t="s">
+        <v>102</v>
+      </c>
+      <c r="D94" t="s">
+        <v>242</v>
+      </c>
+      <c r="E94">
+        <v>5</v>
+      </c>
+      <c r="F94" t="s">
+        <v>119</v>
+      </c>
+      <c r="G94" t="s">
+        <v>243</v>
+      </c>
+      <c r="H94" t="s">
+        <v>194</v>
+      </c>
+      <c r="I94" t="str">
+        <f>_xlfn.CONCAT("{",Table14[[#This Row],[owner]],"}")</f>
+        <v>{gladiator}</v>
+      </c>
+      <c r="J94" s="4">
+        <f t="shared" si="0"/>
+        <v>28</v>
+      </c>
+      <c r="K94" s="4" t="str">
+        <f>_xlfn.CONCAT(Table14[[#This Row],[owner]], Table14[[#This Row],[count]], ".png")</f>
+        <v>gladiator28.png</v>
+      </c>
+      <c r="L94" t="s">
+        <v>108</v>
+      </c>
+      <c r="M94" t="s">
+        <v>120</v>
+      </c>
+      <c r="N94" t="s">
+        <v>119</v>
+      </c>
+      <c r="O94" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="95" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A95" s="4" t="str">
+        <f>CONCATENATE("1.",Table14[[#This Row],[no]],".",Table14[[#This Row],[world]],".",Table14[[#This Row],[dungeon]],".",Table14[[#This Row],[set]],".",Table14[[#This Row],[title]])</f>
+        <v>1.92.Light.SilentE.5.Item</v>
+      </c>
+      <c r="B95">
+        <v>92</v>
+      </c>
+      <c r="C95" t="s">
+        <v>102</v>
+      </c>
+      <c r="D95" t="s">
+        <v>242</v>
+      </c>
+      <c r="E95">
+        <v>5</v>
+      </c>
+      <c r="F95" t="s">
+        <v>119</v>
+      </c>
+      <c r="G95" t="s">
+        <v>243</v>
+      </c>
+      <c r="H95" t="s">
+        <v>193</v>
+      </c>
+      <c r="I95" t="str">
+        <f>_xlfn.CONCAT("{",Table14[[#This Row],[owner]],"}")</f>
+        <v>{barbarian}</v>
+      </c>
+      <c r="J95" s="4">
+        <f t="shared" si="0"/>
+        <v>28</v>
+      </c>
+      <c r="K95" s="4" t="str">
+        <f>_xlfn.CONCAT(Table14[[#This Row],[owner]], Table14[[#This Row],[count]], ".png")</f>
+        <v>barbarian28.png</v>
+      </c>
+      <c r="L95" t="s">
+        <v>108</v>
+      </c>
+      <c r="M95" t="s">
+        <v>120</v>
+      </c>
+      <c r="N95" t="s">
+        <v>119</v>
+      </c>
+      <c r="O95" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="96" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A96" s="4" t="str">
+        <f>CONCATENATE("1.",Table14[[#This Row],[no]],".",Table14[[#This Row],[world]],".",Table14[[#This Row],[dungeon]],".",Table14[[#This Row],[set]],".",Table14[[#This Row],[title]])</f>
+        <v>1.93.Light.SilentE.5.Item</v>
+      </c>
+      <c r="B96">
+        <v>93</v>
+      </c>
+      <c r="C96" t="s">
+        <v>102</v>
+      </c>
+      <c r="D96" t="s">
+        <v>242</v>
+      </c>
+      <c r="E96">
+        <v>5</v>
+      </c>
+      <c r="F96" t="s">
+        <v>119</v>
+      </c>
+      <c r="G96" t="s">
+        <v>243</v>
+      </c>
+      <c r="H96" t="s">
+        <v>192</v>
+      </c>
+      <c r="I96" t="str">
+        <f>_xlfn.CONCAT("{",Table14[[#This Row],[owner]],"}")</f>
+        <v>{cleric}</v>
+      </c>
+      <c r="J96" s="4">
+        <f t="shared" si="0"/>
+        <v>28</v>
+      </c>
+      <c r="K96" s="4" t="str">
+        <f>_xlfn.CONCAT(Table14[[#This Row],[owner]], Table14[[#This Row],[count]], ".png")</f>
+        <v>cleric28.png</v>
+      </c>
+      <c r="L96" t="s">
+        <v>108</v>
+      </c>
+      <c r="M96" t="s">
+        <v>120</v>
+      </c>
+      <c r="N96" t="s">
+        <v>119</v>
+      </c>
+      <c r="O96" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="97" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A97" s="4" t="str">
+        <f>CONCATENATE("1.",Table14[[#This Row],[no]],".",Table14[[#This Row],[world]],".",Table14[[#This Row],[dungeon]],".",Table14[[#This Row],[set]],".",Table14[[#This Row],[title]])</f>
+        <v>1.94.Light.SilentE.5.Item</v>
+      </c>
+      <c r="B97">
+        <v>94</v>
+      </c>
+      <c r="C97" t="s">
+        <v>102</v>
+      </c>
+      <c r="D97" t="s">
+        <v>242</v>
+      </c>
+      <c r="E97">
+        <v>5</v>
+      </c>
+      <c r="F97" t="s">
+        <v>119</v>
+      </c>
+      <c r="G97" t="s">
+        <v>243</v>
+      </c>
+      <c r="H97" t="s">
+        <v>197</v>
+      </c>
+      <c r="I97" t="str">
+        <f>_xlfn.CONCAT("{",Table14[[#This Row],[owner]],"}")</f>
+        <v>{druid}</v>
+      </c>
+      <c r="J97" s="4">
+        <f t="shared" si="0"/>
+        <v>28</v>
+      </c>
+      <c r="K97" s="4" t="str">
+        <f>_xlfn.CONCAT(Table14[[#This Row],[owner]], Table14[[#This Row],[count]], ".png")</f>
+        <v>druid28.png</v>
+      </c>
+      <c r="L97" t="s">
+        <v>108</v>
+      </c>
+      <c r="M97" t="s">
+        <v>120</v>
+      </c>
+      <c r="N97" t="s">
+        <v>119</v>
+      </c>
+      <c r="O97" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="98" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A98" s="4" t="str">
+        <f>CONCATENATE("1.",Table14[[#This Row],[no]],".",Table14[[#This Row],[world]],".",Table14[[#This Row],[dungeon]],".",Table14[[#This Row],[set]],".",Table14[[#This Row],[title]])</f>
+        <v>1.95.Light.SilentE.5.Item</v>
+      </c>
+      <c r="B98">
+        <v>95</v>
+      </c>
+      <c r="C98" t="s">
+        <v>102</v>
+      </c>
+      <c r="D98" t="s">
+        <v>242</v>
+      </c>
+      <c r="E98">
+        <v>5</v>
+      </c>
+      <c r="F98" t="s">
+        <v>119</v>
+      </c>
+      <c r="G98" t="s">
+        <v>243</v>
+      </c>
+      <c r="H98" t="s">
+        <v>196</v>
+      </c>
+      <c r="I98" t="str">
+        <f>_xlfn.CONCAT("{",Table14[[#This Row],[owner]],"}")</f>
+        <v>{rogue}</v>
+      </c>
+      <c r="J98" s="4">
+        <f t="shared" si="0"/>
+        <v>28</v>
+      </c>
+      <c r="K98" s="4" t="str">
+        <f>_xlfn.CONCAT(Table14[[#This Row],[owner]], Table14[[#This Row],[count]], ".png")</f>
+        <v>rogue28.png</v>
+      </c>
+      <c r="L98" t="s">
+        <v>108</v>
+      </c>
+      <c r="M98" t="s">
+        <v>120</v>
+      </c>
+      <c r="N98" t="s">
+        <v>119</v>
+      </c>
+      <c r="O98" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="99" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A99" s="4" t="str">
+        <f>CONCATENATE("1.",Table14[[#This Row],[no]],".",Table14[[#This Row],[world]],".",Table14[[#This Row],[dungeon]],".",Table14[[#This Row],[set]],".",Table14[[#This Row],[title]])</f>
+        <v>1.96.Light.SilentE.5.Item</v>
+      </c>
+      <c r="B99">
+        <v>96</v>
+      </c>
+      <c r="C99" t="s">
+        <v>102</v>
+      </c>
+      <c r="D99" t="s">
+        <v>242</v>
+      </c>
+      <c r="E99">
+        <v>5</v>
+      </c>
+      <c r="F99" t="s">
+        <v>119</v>
+      </c>
+      <c r="G99" t="s">
+        <v>243</v>
+      </c>
+      <c r="H99" t="s">
+        <v>195</v>
+      </c>
+      <c r="I99" t="str">
+        <f>_xlfn.CONCAT("{",Table14[[#This Row],[owner]],"}")</f>
+        <v>{wizard}</v>
+      </c>
+      <c r="J99" s="4">
+        <f t="shared" si="0"/>
+        <v>28</v>
+      </c>
+      <c r="K99" s="4" t="str">
+        <f>_xlfn.CONCAT(Table14[[#This Row],[owner]], Table14[[#This Row],[count]], ".png")</f>
+        <v>wizard28.png</v>
+      </c>
+      <c r="L99" t="s">
+        <v>108</v>
+      </c>
+      <c r="M99" t="s">
+        <v>120</v>
+      </c>
+      <c r="N99" t="s">
+        <v>119</v>
+      </c>
+      <c r="O99" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="100" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A100" s="4" t="str">
+        <f>CONCATENATE("1.",Table14[[#This Row],[no]],".",Table14[[#This Row],[world]],".",Table14[[#This Row],[dungeon]],".",Table14[[#This Row],[set]],".",Table14[[#This Row],[title]])</f>
+        <v>1.97.Light.SilentE.5.Item</v>
+      </c>
+      <c r="B100">
+        <v>97</v>
+      </c>
+      <c r="C100" t="s">
+        <v>102</v>
+      </c>
+      <c r="D100" t="s">
+        <v>242</v>
+      </c>
+      <c r="E100">
+        <v>5</v>
+      </c>
+      <c r="F100" t="s">
+        <v>119</v>
+      </c>
+      <c r="G100" t="s">
+        <v>243</v>
+      </c>
+      <c r="H100" t="s">
+        <v>194</v>
+      </c>
+      <c r="I100" t="str">
+        <f>_xlfn.CONCAT("{",Table14[[#This Row],[owner]],"}")</f>
+        <v>{gladiator}</v>
+      </c>
+      <c r="J100" s="4">
+        <f t="shared" si="0"/>
+        <v>29</v>
+      </c>
+      <c r="K100" s="4" t="str">
+        <f>_xlfn.CONCAT(Table14[[#This Row],[owner]], Table14[[#This Row],[count]], ".png")</f>
+        <v>gladiator29.png</v>
+      </c>
+      <c r="L100" t="s">
+        <v>108</v>
+      </c>
+      <c r="M100" t="s">
+        <v>120</v>
+      </c>
+      <c r="N100" t="s">
+        <v>119</v>
+      </c>
+      <c r="O100" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="101" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A101" s="4" t="str">
+        <f>CONCATENATE("1.",Table14[[#This Row],[no]],".",Table14[[#This Row],[world]],".",Table14[[#This Row],[dungeon]],".",Table14[[#This Row],[set]],".",Table14[[#This Row],[title]])</f>
+        <v>1.98.Light.SilentE.5.Item</v>
+      </c>
+      <c r="B101">
+        <v>98</v>
+      </c>
+      <c r="C101" t="s">
+        <v>102</v>
+      </c>
+      <c r="D101" t="s">
+        <v>242</v>
+      </c>
+      <c r="E101">
+        <v>5</v>
+      </c>
+      <c r="F101" t="s">
+        <v>119</v>
+      </c>
+      <c r="G101" t="s">
+        <v>243</v>
+      </c>
+      <c r="H101" t="s">
+        <v>193</v>
+      </c>
+      <c r="I101" t="str">
+        <f>_xlfn.CONCAT("{",Table14[[#This Row],[owner]],"}")</f>
+        <v>{barbarian}</v>
+      </c>
+      <c r="J101" s="4">
+        <f t="shared" si="0"/>
+        <v>29</v>
+      </c>
+      <c r="K101" s="4" t="str">
+        <f>_xlfn.CONCAT(Table14[[#This Row],[owner]], Table14[[#This Row],[count]], ".png")</f>
+        <v>barbarian29.png</v>
+      </c>
+      <c r="L101" t="s">
+        <v>108</v>
+      </c>
+      <c r="M101" t="s">
+        <v>120</v>
+      </c>
+      <c r="N101" t="s">
+        <v>119</v>
+      </c>
+      <c r="O101" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="102" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A102" s="4" t="str">
+        <f>CONCATENATE("1.",Table14[[#This Row],[no]],".",Table14[[#This Row],[world]],".",Table14[[#This Row],[dungeon]],".",Table14[[#This Row],[set]],".",Table14[[#This Row],[title]])</f>
+        <v>1.99.Light.SilentE.5.Item</v>
+      </c>
+      <c r="B102">
+        <v>99</v>
+      </c>
+      <c r="C102" t="s">
+        <v>102</v>
+      </c>
+      <c r="D102" t="s">
+        <v>242</v>
+      </c>
+      <c r="E102">
+        <v>5</v>
+      </c>
+      <c r="F102" t="s">
+        <v>119</v>
+      </c>
+      <c r="G102" t="s">
+        <v>243</v>
+      </c>
+      <c r="H102" t="s">
+        <v>192</v>
+      </c>
+      <c r="I102" t="str">
+        <f>_xlfn.CONCAT("{",Table14[[#This Row],[owner]],"}")</f>
+        <v>{cleric}</v>
+      </c>
+      <c r="J102" s="4">
+        <f t="shared" si="0"/>
+        <v>29</v>
+      </c>
+      <c r="K102" s="4" t="str">
+        <f>_xlfn.CONCAT(Table14[[#This Row],[owner]], Table14[[#This Row],[count]], ".png")</f>
+        <v>cleric29.png</v>
+      </c>
+      <c r="L102" t="s">
+        <v>108</v>
+      </c>
+      <c r="M102" t="s">
+        <v>120</v>
+      </c>
+      <c r="N102" t="s">
+        <v>119</v>
+      </c>
+      <c r="O102" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="103" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A103" s="4" t="str">
+        <f>CONCATENATE("1.",Table14[[#This Row],[no]],".",Table14[[#This Row],[world]],".",Table14[[#This Row],[dungeon]],".",Table14[[#This Row],[set]],".",Table14[[#This Row],[title]])</f>
+        <v>1.100.Light.SilentE.5.Item</v>
+      </c>
+      <c r="B103">
+        <v>100</v>
+      </c>
+      <c r="C103" t="s">
+        <v>102</v>
+      </c>
+      <c r="D103" t="s">
+        <v>242</v>
+      </c>
+      <c r="E103">
+        <v>5</v>
+      </c>
+      <c r="F103" t="s">
+        <v>119</v>
+      </c>
+      <c r="G103" t="s">
+        <v>243</v>
+      </c>
+      <c r="H103" t="s">
+        <v>197</v>
+      </c>
+      <c r="I103" t="str">
+        <f>_xlfn.CONCAT("{",Table14[[#This Row],[owner]],"}")</f>
+        <v>{druid}</v>
+      </c>
+      <c r="J103" s="4">
+        <f t="shared" si="0"/>
+        <v>29</v>
+      </c>
+      <c r="K103" s="4" t="str">
+        <f>_xlfn.CONCAT(Table14[[#This Row],[owner]], Table14[[#This Row],[count]], ".png")</f>
+        <v>druid29.png</v>
+      </c>
+      <c r="L103" t="s">
+        <v>108</v>
+      </c>
+      <c r="M103" t="s">
+        <v>120</v>
+      </c>
+      <c r="N103" t="s">
+        <v>119</v>
+      </c>
+      <c r="O103" t="s">
+        <v>241</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/CardFormatter/Data/ReadingGame/DataFile.xlsx
+++ b/CardFormatter/Data/ReadingGame/DataFile.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25128"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Mike\CardGenerator\CardFormatter\Data\ReadingGame\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{554A8230-FE51-45CB-ABEE-DA32473F955F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62B98828-26DD-42D0-A9BB-52E1E86AC8E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{B0B6F563-E490-4B3B-95D1-66627E83C2B5}"/>
+    <workbookView xWindow="-6550" yWindow="10690" windowWidth="25820" windowHeight="15620" xr2:uid="{B0B6F563-E490-4B3B-95D1-66627E83C2B5}"/>
   </bookViews>
   <sheets>
     <sheet name="Monsters" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1298" uniqueCount="281">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1442" uniqueCount="301">
   <si>
     <t>Jambler.png</t>
   </si>
@@ -869,9 +869,6 @@
     <t>Weak against Cleric.</t>
   </si>
   <si>
-    <t>Weak against Druid.</t>
-  </si>
-  <si>
     <t>Weak against Rogue.</t>
   </si>
   <si>
@@ -879,6 +876,69 @@
   </si>
   <si>
     <t>Weak against Gladiator.</t>
+  </si>
+  <si>
+    <t>6{damage}</t>
+  </si>
+  <si>
+    <t>7{damage}</t>
+  </si>
+  <si>
+    <t>read from the druid's book</t>
+  </si>
+  <si>
+    <t>0.01-lesserSeaFiend.png</t>
+  </si>
+  <si>
+    <t>0.02-greaterBeholder.png</t>
+  </si>
+  <si>
+    <t>0.03-giantEnemyCrab.png</t>
+  </si>
+  <si>
+    <t>0.04-darkKnight.png</t>
+  </si>
+  <si>
+    <t>0.05-octoBarrel.png</t>
+  </si>
+  <si>
+    <t>0.06-fireCrab.png</t>
+  </si>
+  <si>
+    <t>0.07-wizardKobold.png</t>
+  </si>
+  <si>
+    <t>0.08-fireFiend.png</t>
+  </si>
+  <si>
+    <t>0.09-horribleHydra.png</t>
+  </si>
+  <si>
+    <t>Lesser Sea Fiend</t>
+  </si>
+  <si>
+    <t>Greater Beholder</t>
+  </si>
+  <si>
+    <t>Giant Enemy Crab</t>
+  </si>
+  <si>
+    <t>Dark Knight</t>
+  </si>
+  <si>
+    <t>Octo-Barrel</t>
+  </si>
+  <si>
+    <t>Fire Crab</t>
+  </si>
+  <si>
+    <t>Kobald Wizard</t>
+  </si>
+  <si>
+    <t>Horrible Hydra</t>
+  </si>
+  <si>
+    <t>Weak against\nDruid.</t>
   </si>
 </sst>
 </file>
@@ -894,15 +954,21 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor theme="0" tint="-0.14999847407452621"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -910,11 +976,20 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -922,6 +997,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -968,8 +1047,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{290E3D7D-B49A-4B2B-B111-5FFA204F0C12}" name="Table1" displayName="Table1" ref="A1:L35" totalsRowShown="0">
-  <autoFilter ref="A1:L35" xr:uid="{290E3D7D-B49A-4B2B-B111-5FFA204F0C12}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{290E3D7D-B49A-4B2B-B111-5FFA204F0C12}" name="Table1" displayName="Table1" ref="A1:L45" totalsRowShown="0">
+  <autoFilter ref="A1:L45" xr:uid="{290E3D7D-B49A-4B2B-B111-5FFA204F0C12}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:L35">
     <sortCondition ref="B1:B35"/>
   </sortState>
@@ -1017,8 +1096,8 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{90D2C2DB-910D-41CE-A680-ADDAB3EF40DE}" name="Table14" displayName="Table14" ref="A1:O103" totalsRowShown="0">
-  <autoFilter ref="A1:O103" xr:uid="{90D2C2DB-910D-41CE-A680-ADDAB3EF40DE}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{90D2C2DB-910D-41CE-A680-ADDAB3EF40DE}" name="Table14" displayName="Table14" ref="A1:O110" totalsRowShown="0">
+  <autoFilter ref="A1:O110" xr:uid="{90D2C2DB-910D-41CE-A680-ADDAB3EF40DE}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:N27">
     <sortCondition ref="G1:G27"/>
   </sortState>
@@ -1348,10 +1427,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9069E403-81AF-48AB-A3A4-60BD9FF4944D}">
-  <dimension ref="A1:L35"/>
+  <dimension ref="A1:L45"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L27" sqref="L27"/>
+      <selection activeCell="L5" sqref="L5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1561,7 +1640,7 @@
         <v>52</v>
       </c>
       <c r="L5" t="s">
-        <v>277</v>
+        <v>300</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
@@ -1600,7 +1679,7 @@
         <v>52</v>
       </c>
       <c r="L6" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
@@ -1639,7 +1718,7 @@
         <v>52</v>
       </c>
       <c r="L7" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
@@ -1678,7 +1757,7 @@
         <v>52</v>
       </c>
       <c r="L8" t="s">
-        <v>277</v>
+        <v>300</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
@@ -1717,7 +1796,7 @@
         <v>52</v>
       </c>
       <c r="L9" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
@@ -1795,7 +1874,7 @@
         <v>52</v>
       </c>
       <c r="L11" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
@@ -1834,7 +1913,7 @@
         <v>52</v>
       </c>
       <c r="L12" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
@@ -1873,7 +1952,7 @@
         <v>52</v>
       </c>
       <c r="L13" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
@@ -1951,7 +2030,7 @@
         <v>52</v>
       </c>
       <c r="L15" t="s">
-        <v>277</v>
+        <v>300</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
@@ -1990,7 +2069,7 @@
         <v>52</v>
       </c>
       <c r="L16" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.25">
@@ -2068,7 +2147,7 @@
         <v>52</v>
       </c>
       <c r="L18" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.25">
@@ -2107,7 +2186,7 @@
         <v>52</v>
       </c>
       <c r="L19" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.25">
@@ -2146,7 +2225,7 @@
         <v>52</v>
       </c>
       <c r="L20" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.25">
@@ -2224,7 +2303,7 @@
         <v>52</v>
       </c>
       <c r="L22" t="s">
-        <v>277</v>
+        <v>300</v>
       </c>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.25">
@@ -2263,7 +2342,7 @@
         <v>52</v>
       </c>
       <c r="L23" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.25">
@@ -2341,7 +2420,7 @@
         <v>52</v>
       </c>
       <c r="L25" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.25">
@@ -2380,7 +2459,7 @@
         <v>52</v>
       </c>
       <c r="L26" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.25">
@@ -2458,7 +2537,7 @@
         <v>52</v>
       </c>
       <c r="L28" t="s">
-        <v>277</v>
+        <v>300</v>
       </c>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.25">
@@ -2497,7 +2576,7 @@
         <v>52</v>
       </c>
       <c r="L29" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.25">
@@ -2575,7 +2654,7 @@
         <v>52</v>
       </c>
       <c r="L31" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.25">
@@ -2614,7 +2693,7 @@
         <v>52</v>
       </c>
       <c r="L32" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.25">
@@ -2692,7 +2771,7 @@
         <v>52</v>
       </c>
       <c r="L34" t="s">
-        <v>277</v>
+        <v>300</v>
       </c>
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.25">
@@ -2731,8 +2810,364 @@
         <v>52</v>
       </c>
       <c r="L35" t="s">
-        <v>280</v>
-      </c>
+        <v>279</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A36" s="4" t="str">
+        <f>CONCATENATE("0.",Table1[[#This Row],[No]],".",Table1[[#This Row],[level]],".",Table1[[#This Row],[title]])</f>
+        <v>0.35.7.Lesser Sea Fiend</v>
+      </c>
+      <c r="B36">
+        <v>35</v>
+      </c>
+      <c r="C36">
+        <v>7</v>
+      </c>
+      <c r="D36" t="s">
+        <v>292</v>
+      </c>
+      <c r="E36" t="s">
+        <v>251</v>
+      </c>
+      <c r="F36" t="s">
+        <v>152</v>
+      </c>
+      <c r="G36" t="s">
+        <v>136</v>
+      </c>
+      <c r="H36" t="s">
+        <v>283</v>
+      </c>
+      <c r="I36" t="s">
+        <v>274</v>
+      </c>
+      <c r="J36" t="s">
+        <v>143</v>
+      </c>
+      <c r="K36" t="s">
+        <v>52</v>
+      </c>
+      <c r="L36" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A37" s="4" t="str">
+        <f>CONCATENATE("0.",Table1[[#This Row],[No]],".",Table1[[#This Row],[level]],".",Table1[[#This Row],[title]])</f>
+        <v>0.36.6.Greater Beholder</v>
+      </c>
+      <c r="B37">
+        <v>36</v>
+      </c>
+      <c r="C37">
+        <v>6</v>
+      </c>
+      <c r="D37" t="s">
+        <v>293</v>
+      </c>
+      <c r="E37" t="s">
+        <v>250</v>
+      </c>
+      <c r="F37" t="s">
+        <v>152</v>
+      </c>
+      <c r="G37" t="s">
+        <v>135</v>
+      </c>
+      <c r="H37" t="s">
+        <v>284</v>
+      </c>
+      <c r="I37" t="s">
+        <v>274</v>
+      </c>
+      <c r="J37" t="s">
+        <v>143</v>
+      </c>
+      <c r="K37" t="s">
+        <v>52</v>
+      </c>
+      <c r="L37" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A38" s="4" t="str">
+        <f>CONCATENATE("0.",Table1[[#This Row],[No]],".",Table1[[#This Row],[level]],".",Table1[[#This Row],[title]])</f>
+        <v>0.37.7.Giant Enemy Crab</v>
+      </c>
+      <c r="B38">
+        <v>37</v>
+      </c>
+      <c r="C38">
+        <v>7</v>
+      </c>
+      <c r="D38" t="s">
+        <v>294</v>
+      </c>
+      <c r="E38" t="s">
+        <v>251</v>
+      </c>
+      <c r="F38" t="s">
+        <v>153</v>
+      </c>
+      <c r="G38" t="s">
+        <v>144</v>
+      </c>
+      <c r="H38" t="s">
+        <v>285</v>
+      </c>
+      <c r="I38" t="s">
+        <v>274</v>
+      </c>
+      <c r="J38" t="s">
+        <v>143</v>
+      </c>
+      <c r="K38" t="s">
+        <v>52</v>
+      </c>
+      <c r="L38" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A39" s="4" t="str">
+        <f>CONCATENATE("0.",Table1[[#This Row],[No]],".",Table1[[#This Row],[level]],".",Table1[[#This Row],[title]])</f>
+        <v>0.38.7.Dark Knight</v>
+      </c>
+      <c r="B39">
+        <v>38</v>
+      </c>
+      <c r="C39">
+        <v>7</v>
+      </c>
+      <c r="D39" t="s">
+        <v>295</v>
+      </c>
+      <c r="E39" t="s">
+        <v>251</v>
+      </c>
+      <c r="F39" t="s">
+        <v>152</v>
+      </c>
+      <c r="G39" t="s">
+        <v>145</v>
+      </c>
+      <c r="H39" t="s">
+        <v>286</v>
+      </c>
+      <c r="I39" t="s">
+        <v>274</v>
+      </c>
+      <c r="J39" t="s">
+        <v>143</v>
+      </c>
+      <c r="K39" t="s">
+        <v>52</v>
+      </c>
+      <c r="L39" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A40" s="4" t="str">
+        <f>CONCATENATE("0.",Table1[[#This Row],[No]],".",Table1[[#This Row],[level]],".",Table1[[#This Row],[title]])</f>
+        <v>0.39.6.Octo-Barrel</v>
+      </c>
+      <c r="B40">
+        <v>39</v>
+      </c>
+      <c r="C40">
+        <v>6</v>
+      </c>
+      <c r="D40" t="s">
+        <v>296</v>
+      </c>
+      <c r="E40" t="s">
+        <v>248</v>
+      </c>
+      <c r="F40" t="s">
+        <v>152</v>
+      </c>
+      <c r="G40" t="s">
+        <v>134</v>
+      </c>
+      <c r="H40" t="s">
+        <v>287</v>
+      </c>
+      <c r="I40" t="s">
+        <v>274</v>
+      </c>
+      <c r="J40" t="s">
+        <v>143</v>
+      </c>
+      <c r="K40" t="s">
+        <v>52</v>
+      </c>
+      <c r="L40" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A41" s="4" t="str">
+        <f>CONCATENATE("0.",Table1[[#This Row],[No]],".",Table1[[#This Row],[level]],".",Table1[[#This Row],[title]])</f>
+        <v>0.40.6.Fire Crab</v>
+      </c>
+      <c r="B41">
+        <v>40</v>
+      </c>
+      <c r="C41">
+        <v>6</v>
+      </c>
+      <c r="D41" t="s">
+        <v>297</v>
+      </c>
+      <c r="E41" t="s">
+        <v>245</v>
+      </c>
+      <c r="F41" t="s">
+        <v>151</v>
+      </c>
+      <c r="G41" t="s">
+        <v>137</v>
+      </c>
+      <c r="H41" t="s">
+        <v>288</v>
+      </c>
+      <c r="I41" t="s">
+        <v>274</v>
+      </c>
+      <c r="J41" t="s">
+        <v>143</v>
+      </c>
+      <c r="K41" t="s">
+        <v>52</v>
+      </c>
+      <c r="L41" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A42" s="4" t="str">
+        <f>CONCATENATE("0.",Table1[[#This Row],[No]],".",Table1[[#This Row],[level]],".",Table1[[#This Row],[title]])</f>
+        <v>0.41.6.Kobald Wizard</v>
+      </c>
+      <c r="B42">
+        <v>41</v>
+      </c>
+      <c r="C42">
+        <v>6</v>
+      </c>
+      <c r="D42" t="s">
+        <v>298</v>
+      </c>
+      <c r="E42" t="s">
+        <v>247</v>
+      </c>
+      <c r="F42" t="s">
+        <v>152</v>
+      </c>
+      <c r="G42" t="s">
+        <v>136</v>
+      </c>
+      <c r="H42" t="s">
+        <v>289</v>
+      </c>
+      <c r="I42" t="s">
+        <v>274</v>
+      </c>
+      <c r="J42" t="s">
+        <v>143</v>
+      </c>
+      <c r="K42" t="s">
+        <v>52</v>
+      </c>
+      <c r="L42" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A43" s="4" t="str">
+        <f>CONCATENATE("0.",Table1[[#This Row],[No]],".",Table1[[#This Row],[level]],".",Table1[[#This Row],[title]])</f>
+        <v>0.42.7.Fire Fiend</v>
+      </c>
+      <c r="B43">
+        <v>42</v>
+      </c>
+      <c r="C43">
+        <v>7</v>
+      </c>
+      <c r="D43" t="s">
+        <v>107</v>
+      </c>
+      <c r="E43" t="s">
+        <v>253</v>
+      </c>
+      <c r="F43" t="s">
+        <v>152</v>
+      </c>
+      <c r="G43" t="s">
+        <v>135</v>
+      </c>
+      <c r="H43" t="s">
+        <v>290</v>
+      </c>
+      <c r="I43" t="s">
+        <v>274</v>
+      </c>
+      <c r="J43" t="s">
+        <v>143</v>
+      </c>
+      <c r="K43" t="s">
+        <v>52</v>
+      </c>
+      <c r="L43" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A44" s="4" t="str">
+        <f>CONCATENATE("0.",Table1[[#This Row],[No]],".",Table1[[#This Row],[level]],".",Table1[[#This Row],[title]])</f>
+        <v>0.43.7.Horrible Hydra</v>
+      </c>
+      <c r="B44">
+        <v>43</v>
+      </c>
+      <c r="C44">
+        <v>7</v>
+      </c>
+      <c r="D44" t="s">
+        <v>299</v>
+      </c>
+      <c r="E44" t="s">
+        <v>252</v>
+      </c>
+      <c r="F44" t="s">
+        <v>153</v>
+      </c>
+      <c r="G44" t="s">
+        <v>144</v>
+      </c>
+      <c r="H44" t="s">
+        <v>291</v>
+      </c>
+      <c r="I44" t="s">
+        <v>274</v>
+      </c>
+      <c r="J44" t="s">
+        <v>143</v>
+      </c>
+      <c r="K44" t="s">
+        <v>52</v>
+      </c>
+      <c r="L44" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A45" s="4"/>
+      <c r="E45" s="4"/>
+      <c r="F45" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2961,10 +3396,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1B97AD1E-A351-4022-989B-9AB8A0D2AA66}">
-  <dimension ref="A1:O103"/>
+  <dimension ref="A1:O110"/>
   <sheetViews>
-    <sheetView topLeftCell="A57" workbookViewId="0">
-      <selection activeCell="K67" sqref="K67"/>
+    <sheetView topLeftCell="A75" workbookViewId="0">
+      <selection activeCell="K110" sqref="K110"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8228,6 +8663,356 @@
         <v>241</v>
       </c>
     </row>
+    <row r="104" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A104" s="4" t="str">
+        <f>CONCATENATE("1.",Table14[[#This Row],[no]],".",Table14[[#This Row],[world]],".",Table14[[#This Row],[dungeon]],".",Table14[[#This Row],[set]],".",Table14[[#This Row],[title]])</f>
+        <v>1.101.Light.SilentE.6.Item</v>
+      </c>
+      <c r="B104">
+        <v>101</v>
+      </c>
+      <c r="C104" t="s">
+        <v>102</v>
+      </c>
+      <c r="D104" t="s">
+        <v>242</v>
+      </c>
+      <c r="E104">
+        <v>6</v>
+      </c>
+      <c r="F104" t="s">
+        <v>119</v>
+      </c>
+      <c r="G104" t="s">
+        <v>280</v>
+      </c>
+      <c r="H104" t="s">
+        <v>197</v>
+      </c>
+      <c r="I104" t="str">
+        <f>_xlfn.CONCAT("{",Table14[[#This Row],[owner]],"}")</f>
+        <v>{druid}</v>
+      </c>
+      <c r="J104" s="4">
+        <v>30</v>
+      </c>
+      <c r="K104" s="4" t="str">
+        <f>_xlfn.CONCAT(Table14[[#This Row],[owner]], Table14[[#This Row],[count]], ".png")</f>
+        <v>druid30.png</v>
+      </c>
+      <c r="L104" t="s">
+        <v>108</v>
+      </c>
+      <c r="M104" t="s">
+        <v>120</v>
+      </c>
+      <c r="N104" t="s">
+        <v>119</v>
+      </c>
+      <c r="O104" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="105" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A105" s="4" t="str">
+        <f>CONCATENATE("1.",Table14[[#This Row],[no]],".",Table14[[#This Row],[world]],".",Table14[[#This Row],[dungeon]],".",Table14[[#This Row],[set]],".",Table14[[#This Row],[title]])</f>
+        <v>1.102.Light.SilentE.6.Item</v>
+      </c>
+      <c r="B105">
+        <v>102</v>
+      </c>
+      <c r="C105" t="s">
+        <v>102</v>
+      </c>
+      <c r="D105" t="s">
+        <v>242</v>
+      </c>
+      <c r="E105">
+        <v>6</v>
+      </c>
+      <c r="F105" t="s">
+        <v>119</v>
+      </c>
+      <c r="G105" t="s">
+        <v>280</v>
+      </c>
+      <c r="H105" t="s">
+        <v>197</v>
+      </c>
+      <c r="I105" t="str">
+        <f>_xlfn.CONCAT("{",Table14[[#This Row],[owner]],"}")</f>
+        <v>{druid}</v>
+      </c>
+      <c r="J105" s="4">
+        <v>31</v>
+      </c>
+      <c r="K105" s="4" t="str">
+        <f>_xlfn.CONCAT(Table14[[#This Row],[owner]], Table14[[#This Row],[count]], ".png")</f>
+        <v>druid31.png</v>
+      </c>
+      <c r="L105" t="s">
+        <v>108</v>
+      </c>
+      <c r="M105" t="s">
+        <v>120</v>
+      </c>
+      <c r="N105" t="s">
+        <v>119</v>
+      </c>
+      <c r="O105" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="106" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A106" s="4" t="str">
+        <f>CONCATENATE("1.",Table14[[#This Row],[no]],".",Table14[[#This Row],[world]],".",Table14[[#This Row],[dungeon]],".",Table14[[#This Row],[set]],".",Table14[[#This Row],[title]])</f>
+        <v>1.103.Light.SilentE.6.Item</v>
+      </c>
+      <c r="B106">
+        <v>103</v>
+      </c>
+      <c r="C106" t="s">
+        <v>102</v>
+      </c>
+      <c r="D106" t="s">
+        <v>242</v>
+      </c>
+      <c r="E106">
+        <v>6</v>
+      </c>
+      <c r="F106" t="s">
+        <v>119</v>
+      </c>
+      <c r="G106" t="s">
+        <v>280</v>
+      </c>
+      <c r="H106" t="s">
+        <v>197</v>
+      </c>
+      <c r="I106" t="str">
+        <f>_xlfn.CONCAT("{",Table14[[#This Row],[owner]],"}")</f>
+        <v>{druid}</v>
+      </c>
+      <c r="J106" s="4">
+        <v>32</v>
+      </c>
+      <c r="K106" s="4" t="str">
+        <f>_xlfn.CONCAT(Table14[[#This Row],[owner]], Table14[[#This Row],[count]], ".png")</f>
+        <v>druid32.png</v>
+      </c>
+      <c r="L106" t="s">
+        <v>108</v>
+      </c>
+      <c r="M106" t="s">
+        <v>120</v>
+      </c>
+      <c r="N106" t="s">
+        <v>119</v>
+      </c>
+      <c r="O106" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="107" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A107" s="4" t="str">
+        <f>CONCATENATE("1.",Table14[[#This Row],[no]],".",Table14[[#This Row],[world]],".",Table14[[#This Row],[dungeon]],".",Table14[[#This Row],[set]],".",Table14[[#This Row],[title]])</f>
+        <v>1.104.Light.SilentE.6.Item</v>
+      </c>
+      <c r="B107">
+        <v>104</v>
+      </c>
+      <c r="C107" t="s">
+        <v>102</v>
+      </c>
+      <c r="D107" t="s">
+        <v>242</v>
+      </c>
+      <c r="E107">
+        <v>6</v>
+      </c>
+      <c r="F107" t="s">
+        <v>119</v>
+      </c>
+      <c r="G107" t="s">
+        <v>281</v>
+      </c>
+      <c r="H107" t="s">
+        <v>197</v>
+      </c>
+      <c r="I107" t="str">
+        <f>_xlfn.CONCAT("{",Table14[[#This Row],[owner]],"}")</f>
+        <v>{druid}</v>
+      </c>
+      <c r="J107" s="4">
+        <v>33</v>
+      </c>
+      <c r="K107" s="4" t="str">
+        <f>_xlfn.CONCAT(Table14[[#This Row],[owner]], Table14[[#This Row],[count]], ".png")</f>
+        <v>druid33.png</v>
+      </c>
+      <c r="L107" t="s">
+        <v>108</v>
+      </c>
+      <c r="M107" t="s">
+        <v>120</v>
+      </c>
+      <c r="N107" t="s">
+        <v>119</v>
+      </c>
+      <c r="O107" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="108" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A108" s="4" t="str">
+        <f>CONCATENATE("1.",Table14[[#This Row],[no]],".",Table14[[#This Row],[world]],".",Table14[[#This Row],[dungeon]],".",Table14[[#This Row],[set]],".",Table14[[#This Row],[title]])</f>
+        <v>1.105.Light.SilentE.6.Item</v>
+      </c>
+      <c r="B108">
+        <v>105</v>
+      </c>
+      <c r="C108" t="s">
+        <v>102</v>
+      </c>
+      <c r="D108" t="s">
+        <v>242</v>
+      </c>
+      <c r="E108">
+        <v>6</v>
+      </c>
+      <c r="F108" t="s">
+        <v>119</v>
+      </c>
+      <c r="G108" t="s">
+        <v>281</v>
+      </c>
+      <c r="H108" t="s">
+        <v>197</v>
+      </c>
+      <c r="I108" t="str">
+        <f>_xlfn.CONCAT("{",Table14[[#This Row],[owner]],"}")</f>
+        <v>{druid}</v>
+      </c>
+      <c r="J108" s="4">
+        <v>34</v>
+      </c>
+      <c r="K108" s="4" t="str">
+        <f>_xlfn.CONCAT(Table14[[#This Row],[owner]], Table14[[#This Row],[count]], ".png")</f>
+        <v>druid34.png</v>
+      </c>
+      <c r="L108" t="s">
+        <v>108</v>
+      </c>
+      <c r="M108" t="s">
+        <v>120</v>
+      </c>
+      <c r="N108" t="s">
+        <v>119</v>
+      </c>
+      <c r="O108" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="109" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A109" s="5" t="str">
+        <f>CONCATENATE("1.",Table14[[#This Row],[no]],".",Table14[[#This Row],[world]],".",Table14[[#This Row],[dungeon]],".",Table14[[#This Row],[set]],".",Table14[[#This Row],[title]])</f>
+        <v>1.106.Light.SilentE.6.Item</v>
+      </c>
+      <c r="B109">
+        <v>106</v>
+      </c>
+      <c r="C109" t="s">
+        <v>102</v>
+      </c>
+      <c r="D109" t="s">
+        <v>242</v>
+      </c>
+      <c r="E109">
+        <v>6</v>
+      </c>
+      <c r="F109" t="s">
+        <v>119</v>
+      </c>
+      <c r="G109" t="s">
+        <v>281</v>
+      </c>
+      <c r="H109" t="s">
+        <v>197</v>
+      </c>
+      <c r="I109" t="str">
+        <f>_xlfn.CONCAT("{",Table14[[#This Row],[owner]],"}")</f>
+        <v>{druid}</v>
+      </c>
+      <c r="J109" s="4">
+        <v>35</v>
+      </c>
+      <c r="K109" s="4" t="str">
+        <f>_xlfn.CONCAT(Table14[[#This Row],[owner]], Table14[[#This Row],[count]], ".png")</f>
+        <v>druid35.png</v>
+      </c>
+      <c r="L109" t="s">
+        <v>108</v>
+      </c>
+      <c r="M109" t="s">
+        <v>120</v>
+      </c>
+      <c r="N109" t="s">
+        <v>119</v>
+      </c>
+      <c r="O109" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="110" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A110" s="6" t="str">
+        <f>CONCATENATE("1.",Table14[[#This Row],[no]],".",Table14[[#This Row],[world]],".",Table14[[#This Row],[dungeon]],".",Table14[[#This Row],[set]],".",Table14[[#This Row],[title]])</f>
+        <v>1.107.Light.SilentE.6.Item</v>
+      </c>
+      <c r="B110" s="7">
+        <v>107</v>
+      </c>
+      <c r="C110" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="D110" s="7" t="s">
+        <v>242</v>
+      </c>
+      <c r="E110" s="7">
+        <v>6</v>
+      </c>
+      <c r="F110" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="G110" s="7" t="s">
+        <v>281</v>
+      </c>
+      <c r="H110" s="7" t="s">
+        <v>197</v>
+      </c>
+      <c r="I110" t="str">
+        <f>_xlfn.CONCAT("{",Table14[[#This Row],[owner]],"}")</f>
+        <v>{druid}</v>
+      </c>
+      <c r="J110" s="8">
+        <v>36</v>
+      </c>
+      <c r="K110" s="8" t="str">
+        <f>_xlfn.CONCAT(Table14[[#This Row],[owner]], Table14[[#This Row],[count]], ".png")</f>
+        <v>druid36.png</v>
+      </c>
+      <c r="L110" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="M110" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="N110" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="O110" s="7" t="s">
+        <v>282</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
